--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778333F-D438-4B2F-9CD3-8CE6407F521B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903927A-AB66-45FB-B151-AD07A32D71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31845,7 +31845,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>火焰</t>
     </r>
@@ -32093,7 +32093,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>社区帽</t>
     </r>
@@ -32171,10 +32171,184 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>定制：&lt;color=#c1a9ff&gt;Virtual_Dusk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>中文翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>：123，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>氧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>名&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#1a75ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Yu Gothic"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t>博玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t>模</t>
     </r>
     <r>
@@ -32255,7 +32429,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>名&lt;/color&gt;&lt;color=#1a75ff&gt;</t>
+      <t>名&lt;/color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -32265,6 +32439,26 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;color=#1a75ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>兰博玩对战（内测）</t>
     </r>
     <r>
@@ -32276,110 +32470,6 @@
         <charset val="128"/>
       </rPr>
       <t>&lt;/color&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>定制：&lt;color=#c1a9ff&gt;Virtual_Dusk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>中文翻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>：123，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>氧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>名&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;color=#1a75ff&gt;兰博玩对战（内测）&lt;/color&gt;</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -35322,8 +35412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B853" workbookViewId="0">
-      <selection activeCell="M855" sqref="M855"/>
+    <sheetView tabSelected="1" topLeftCell="B844" workbookViewId="0">
+      <selection activeCell="M856" sqref="M856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75"/>
@@ -43772,7 +43862,7 @@
         <v>2713</v>
       </c>
       <c r="O853" s="43" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="854" spans="1:15" ht="123.75">
@@ -43786,7 +43876,7 @@
         <v>2716</v>
       </c>
       <c r="O854" s="37" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="855" spans="1:15">
@@ -44493,7 +44583,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="150">
+    <row r="28" spans="1:15" ht="112.5">
       <c r="A28" s="1" t="s">
         <v>2889</v>
       </c>
@@ -44563,7 +44653,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="112.5">
+    <row r="33" spans="1:15" ht="92.25">
       <c r="A33" s="1" t="s">
         <v>2907</v>
       </c>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903927A-AB66-45FB-B151-AD07A32D71E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A54C7E7-0437-4537-B6BB-A73698FE8B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32171,28 +32171,73 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>中文翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>模组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>定制：&lt;color=#c1a9ff&gt;Virtual_Dusk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>：&lt;color=#c1a9ff&gt;123，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>氢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>氧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>名&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -32201,175 +32246,122 @@
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#1a75ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>博玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定制：&lt;color=#c1a9ff&gt;Haoming&lt;/size&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>中文翻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>：123，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>氧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>名&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;color=#1a75ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>博玩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）&lt;/color&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>定制：&lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming&lt;/size&gt;中文翻</t>
     </r>
     <r>
       <rPr>
@@ -35413,7 +35405,7 @@
   <dimension ref="A1:Q876"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B844" workbookViewId="0">
-      <selection activeCell="M856" sqref="M856"/>
+      <selection activeCell="O856" sqref="O856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A54C7E7-0437-4537-B6BB-A73698FE8B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA112ED-0E90-4E68-834A-70A4343CA394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HaomingText" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Hats" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HaomingText!$O$1:$O$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HaomingText!$O$1:$O$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Text!$O$1:$O$876</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="3386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="3393">
   <si>
     <t>English</t>
   </si>
@@ -32076,7 +32076,428 @@
   </si>
   <si>
     <r>
-      <t>GM-H</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>在第一名被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>击杀玩家出现前不可以击杀</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GM-H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>重制版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>v{0}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditsMain</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>中文翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>：&lt;color=#c1a9ff&gt;123，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>氧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>名&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#1a75ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>博玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定制：&lt;color=#c1a9ff&gt;Haoming&lt;/size&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中文翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：123，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>氧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>名&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;color=#1a75ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰博玩对战（内测）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>02haomingHat</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM-Haoming Community Hats</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GM-Haoming </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Hats</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰博玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>社区帽</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>兰博玩</t>
     </r>
     <r>
       <rPr>
@@ -32086,383 +32507,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>社区帽</t>
+      <t>实验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>帽</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>在第一名被</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>击杀玩家出现前不可以击杀</t>
-    </r>
+    <t>nationalFlagHats</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">GM-H </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>重制版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>v{0}</t>
-    </r>
+    <t>National Flag Hats</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>creditsMain</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>中文翻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>：&lt;color=#c1a9ff&gt;123，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>氧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>名&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;color=#1a75ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>博玩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）&lt;/color&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>定制：&lt;color=#c1a9ff&gt;Haoming&lt;/size&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中文翻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：123，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>氧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;color=#1a75ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰博玩对战（内测）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
+    <t>国旗皮肤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -32590,7 +32657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -32666,7 +32733,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -32947,10 +33013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q185"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P184" sqref="P184"/>
+    <sheetView tabSelected="1" topLeftCell="F168" workbookViewId="0">
+      <selection activeCell="M175" sqref="M175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="18.75"/>
@@ -35196,200 +35262,228 @@
       <c r="A170" t="s">
         <v>578</v>
       </c>
-      <c r="B170" t="s">
-        <v>579</v>
+      <c r="B170" s="28" t="s">
+        <v>3386</v>
       </c>
       <c r="M170" t="s">
         <v>579</v>
       </c>
-      <c r="O170" s="41" t="s">
-        <v>3380</v>
+      <c r="O170" s="39" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="41" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>3387</v>
+      </c>
+      <c r="M171" s="28" t="s">
+        <v>3387</v>
+      </c>
+      <c r="O171" s="28" t="s">
+        <v>3389</v>
       </c>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" t="s">
-        <v>580</v>
-      </c>
-      <c r="B172" t="s">
-        <v>581</v>
-      </c>
-      <c r="M172" t="s">
-        <v>582</v>
-      </c>
-      <c r="O172" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="A173" t="s">
-        <v>584</v>
-      </c>
-      <c r="B173" t="s">
-        <v>585</v>
-      </c>
-      <c r="M173" t="s">
-        <v>586</v>
-      </c>
-      <c r="O173" s="23" t="s">
-        <v>587</v>
+      <c r="A172" s="41" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>3391</v>
+      </c>
+      <c r="M172" s="28" t="s">
+        <v>3391</v>
+      </c>
+      <c r="O172" s="28" t="s">
+        <v>3392</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B174" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M174" t="s">
-        <v>590</v>
-      </c>
-      <c r="O174" s="23" t="s">
-        <v>591</v>
+        <v>582</v>
+      </c>
+      <c r="O174" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
+        <v>585</v>
       </c>
       <c r="M175" t="s">
-        <v>30</v>
+        <v>586</v>
       </c>
       <c r="O175" s="23" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B176" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M176" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="O176" s="23" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B177" t="s">
-        <v>599</v>
+        <v>29</v>
       </c>
       <c r="M177" t="s">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="O177" s="23" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B178" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M178" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="O178" s="23" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B179" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="M179" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="O179" s="23" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B180" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M180" t="s">
-        <v>612</v>
-      </c>
-      <c r="O180" s="29" t="s">
-        <v>613</v>
+        <v>604</v>
+      </c>
+      <c r="O180" s="23" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B181" t="s">
+        <v>607</v>
+      </c>
+      <c r="M181" t="s">
+        <v>608</v>
+      </c>
+      <c r="O181" s="23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" t="s">
+        <v>610</v>
+      </c>
+      <c r="B182" t="s">
         <v>611</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M182" t="s">
         <v>612</v>
       </c>
-      <c r="O181" s="29" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="317.25">
-      <c r="A182" t="s">
-        <v>616</v>
-      </c>
-      <c r="B182" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="M182" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="O182" s="30" t="s">
-        <v>619</v>
+      <c r="O182" s="29" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B183" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="M183" t="s">
-        <v>622</v>
-      </c>
-      <c r="O183" s="23" t="s">
-        <v>623</v>
+        <v>612</v>
+      </c>
+      <c r="O183" s="29" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="317.25">
+      <c r="A184" t="s">
+        <v>616</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="M184" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="O184" s="30" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
+        <v>620</v>
+      </c>
+      <c r="B185" t="s">
+        <v>621</v>
+      </c>
+      <c r="M185" t="s">
+        <v>622</v>
+      </c>
+      <c r="O185" s="23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
         <v>624</v>
       </c>
-      <c r="B185" s="28" t="s">
+      <c r="B187" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="M185" s="28" t="s">
+      <c r="M187" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="O185" s="40" t="s">
-        <v>3381</v>
+      <c r="O187" s="40" t="s">
+        <v>3380</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O185" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O187" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -35404,7 +35498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B844" workbookViewId="0">
+    <sheetView topLeftCell="B844" workbookViewId="0">
       <selection activeCell="O856" sqref="O856"/>
     </sheetView>
   </sheetViews>
@@ -43844,8 +43938,8 @@
       </c>
     </row>
     <row r="853" spans="1:15" ht="108.75">
-      <c r="A853" s="42" t="s">
-        <v>3383</v>
+      <c r="A853" s="41" t="s">
+        <v>3382</v>
       </c>
       <c r="B853" s="20" t="s">
         <v>2712</v>
@@ -43853,8 +43947,8 @@
       <c r="M853" s="20" t="s">
         <v>2713</v>
       </c>
-      <c r="O853" s="43" t="s">
-        <v>3384</v>
+      <c r="O853" s="42" t="s">
+        <v>3383</v>
       </c>
     </row>
     <row r="854" spans="1:15" ht="123.75">
@@ -43868,7 +43962,7 @@
         <v>2716</v>
       </c>
       <c r="O854" s="37" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="855" spans="1:15">
@@ -43881,8 +43975,8 @@
       <c r="M855" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="O855" s="42" t="s">
-        <v>3382</v>
+      <c r="O855" s="41" t="s">
+        <v>3381</v>
       </c>
     </row>
     <row r="857" spans="1:15" ht="37.5">

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF299B3-E741-4C06-BD0F-61AFC5E112D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14693D9F-23C0-46ED-B278-7C2DA72C5A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33310,7 +33310,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>飞艇：使用老版的管理面板</t>
+    <t>飞艇：使用旧版的管理室地图</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -33800,7 +33800,7 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G111" workbookViewId="0">
-      <selection activeCell="O126" sqref="O126"/>
+      <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14693D9F-23C0-46ED-B278-7C2DA72C5A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE299F-8E4B-46BE-8137-E6B1FAD9E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HaomingText" sheetId="1" r:id="rId1"/>
@@ -14320,12 +14320,6 @@
     <t>Target Knows</t>
   </si>
   <si>
-    <t>依頼人が弁護されていることがわかる</t>
-  </si>
-  <si>
-    <t>客户知道谁是律师</t>
-  </si>
-  <si>
     <t>lawyerWinsMeeting</t>
   </si>
   <si>
@@ -14369,9 +14363,6 @@
   </si>
   <si>
     <t>依頼人のロールがわかる</t>
-  </si>
-  <si>
-    <t>律师知道客户具体身份</t>
   </si>
   <si>
     <t>pursuer</t>
@@ -33311,6 +33302,92 @@
   </si>
   <si>
     <t>飞艇：使用旧版的管理室地图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>依頼人が弁護されていることがわかる</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>律师的存在</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>律</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>知道客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>具体身份</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -33799,7 +33876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G111" workbookViewId="0">
+    <sheetView topLeftCell="G111" workbookViewId="0">
       <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
@@ -34896,7 +34973,7 @@
         <v>284</v>
       </c>
       <c r="O82" s="39" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -34907,7 +34984,7 @@
         <v>286</v>
       </c>
       <c r="O83" s="38" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -35439,10 +35516,10 @@
         <v>432</v>
       </c>
       <c r="M122" s="28" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="O122" s="38" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -35470,7 +35547,7 @@
         <v>439</v>
       </c>
       <c r="O124" s="38" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -35484,21 +35561,21 @@
         <v>442</v>
       </c>
       <c r="O125" s="43" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="M126" t="s">
+        <v>3391</v>
+      </c>
+      <c r="O126" s="29" t="s">
         <v>3393</v>
-      </c>
-      <c r="M126" t="s">
-        <v>3394</v>
-      </c>
-      <c r="O126" s="29" t="s">
-        <v>3396</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -35526,7 +35603,7 @@
         <v>449</v>
       </c>
       <c r="O128" s="40" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -36061,41 +36138,41 @@
         <v>577</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="M171" t="s">
         <v>578</v>
       </c>
       <c r="O171" s="39" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="41" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="M172" s="28" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="O172" s="28" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="41" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="M173" s="28" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="O173" s="28" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -36277,7 +36354,7 @@
         <v>625</v>
       </c>
       <c r="O188" s="40" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
     </row>
   </sheetData>
@@ -36296,8 +36373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q876"/>
   <sheetViews>
-    <sheetView topLeftCell="B844" workbookViewId="0">
-      <selection activeCell="O856" sqref="O856"/>
+    <sheetView tabSelected="1" topLeftCell="B514" workbookViewId="0">
+      <selection activeCell="O523" sqref="O523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75"/>
@@ -38152,7 +38229,7 @@
         <v>1092</v>
       </c>
       <c r="O189" s="7" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="191" spans="1:15">
@@ -38278,7 +38355,7 @@
         <v>1123</v>
       </c>
       <c r="O206" s="31" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="207" spans="1:15">
@@ -38292,7 +38369,7 @@
         <v>1126</v>
       </c>
       <c r="O207" s="32" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="208" spans="1:15">
@@ -38320,7 +38397,7 @@
         <v>1131</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="211" spans="1:15">
@@ -38334,7 +38411,7 @@
         <v>1134</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="212" spans="1:15">
@@ -38348,7 +38425,7 @@
         <v>1137</v>
       </c>
       <c r="O212" s="7" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="216" spans="1:15">
@@ -39398,7 +39475,7 @@
         <v>1399</v>
       </c>
       <c r="O325" s="31" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="326" spans="1:15">
@@ -39818,7 +39895,7 @@
         <v>1509</v>
       </c>
       <c r="O371" s="33" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="372" spans="1:15">
@@ -39832,7 +39909,7 @@
         <v>1509</v>
       </c>
       <c r="O372" s="33" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="374" spans="1:15">
@@ -40200,7 +40277,7 @@
         <v>1610</v>
       </c>
       <c r="O410" s="33" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="411" spans="1:15">
@@ -40242,7 +40319,7 @@
         <v>1621</v>
       </c>
       <c r="O414" s="7" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="415" spans="1:15">
@@ -40256,7 +40333,7 @@
         <v>1624</v>
       </c>
       <c r="O415" s="7" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="416" spans="1:15">
@@ -40382,7 +40459,7 @@
         <v>1656</v>
       </c>
       <c r="O431" s="33" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="432" spans="1:15">
@@ -40424,7 +40501,7 @@
         <v>1665</v>
       </c>
       <c r="O435" s="7" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="436" spans="1:15">
@@ -40438,7 +40515,7 @@
         <v>1668</v>
       </c>
       <c r="O436" s="7" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="437" spans="1:15">
@@ -40452,7 +40529,7 @@
         <v>1671</v>
       </c>
       <c r="O437" s="7" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="438" spans="1:15">
@@ -40466,7 +40543,7 @@
         <v>1674</v>
       </c>
       <c r="O438" s="7" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="439" spans="1:15">
@@ -40480,7 +40557,7 @@
         <v>1677</v>
       </c>
       <c r="O439" s="7" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="440" spans="1:15">
@@ -40494,7 +40571,7 @@
         <v>1562</v>
       </c>
       <c r="O440" s="7" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="441" spans="1:15">
@@ -40508,7 +40585,7 @@
         <v>1566</v>
       </c>
       <c r="O441" s="7" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="442" spans="1:15">
@@ -40522,7 +40599,7 @@
         <v>1682</v>
       </c>
       <c r="O442" s="7" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="444" spans="1:15">
@@ -41241,376 +41318,376 @@
       <c r="B524" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="M524" t="s">
-        <v>1858</v>
-      </c>
-      <c r="O524" s="7" t="s">
-        <v>1859</v>
+      <c r="M524" s="28" t="s">
+        <v>3394</v>
+      </c>
+      <c r="O524" s="33" t="s">
+        <v>3395</v>
       </c>
     </row>
     <row r="525" spans="1:15">
       <c r="A525" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="M525" t="s">
         <v>1860</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="O525" s="7" t="s">
         <v>1861</v>
-      </c>
-      <c r="M525" t="s">
-        <v>1862</v>
-      </c>
-      <c r="O525" s="7" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="526" spans="1:15">
       <c r="A526" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="M526" t="s">
         <v>1864</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="O526" s="7" t="s">
         <v>1865</v>
-      </c>
-      <c r="M526" t="s">
-        <v>1866</v>
-      </c>
-      <c r="O526" s="7" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="527" spans="1:15">
       <c r="A527" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="M527" t="s">
         <v>1868</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="O527" s="7" t="s">
         <v>1869</v>
-      </c>
-      <c r="M527" t="s">
-        <v>1870</v>
-      </c>
-      <c r="O527" s="7" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="528" spans="1:15">
       <c r="A528" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M528" t="s">
         <v>1872</v>
       </c>
-      <c r="B528" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="M528" t="s">
-        <v>1874</v>
-      </c>
-      <c r="O528" s="7" t="s">
-        <v>1875</v>
+      <c r="O528" s="33" t="s">
+        <v>3396</v>
       </c>
     </row>
     <row r="532" spans="1:15">
       <c r="A532" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="M532" t="s">
+        <v>1875</v>
+      </c>
+      <c r="O532" s="7" t="s">
         <v>1876</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="M532" t="s">
-        <v>1878</v>
-      </c>
-      <c r="O532" s="7" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="533" spans="1:15">
       <c r="A533" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="M533" t="s">
+        <v>1879</v>
+      </c>
+      <c r="O533" s="7" t="s">
         <v>1880</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="M533" t="s">
-        <v>1882</v>
-      </c>
-      <c r="O533" s="7" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="534" spans="1:15">
       <c r="A534" s="1" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="M534" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="O534" s="7" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="535" spans="1:15" ht="112.5">
       <c r="A535" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="M535" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="O535" s="7" t="s">
         <v>1885</v>
-      </c>
-      <c r="B535" s="5" t="s">
-        <v>1886</v>
-      </c>
-      <c r="M535" s="4" t="s">
-        <v>1887</v>
-      </c>
-      <c r="O535" s="7" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="536" spans="1:15">
       <c r="A536" s="1" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="O536" s="7"/>
     </row>
     <row r="538" spans="1:15">
       <c r="A538" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="M538" t="s">
+        <v>1889</v>
+      </c>
+      <c r="O538" s="7" t="s">
         <v>1890</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>1891</v>
-      </c>
-      <c r="M538" t="s">
-        <v>1892</v>
-      </c>
-      <c r="O538" s="7" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="539" spans="1:15">
       <c r="A539" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M539" t="s">
+        <v>1893</v>
+      </c>
+      <c r="O539" s="7" t="s">
         <v>1894</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="M539" t="s">
-        <v>1896</v>
-      </c>
-      <c r="O539" s="7" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="541" spans="1:15">
       <c r="A541" s="1" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="M541" t="s">
         <v>1099</v>
       </c>
       <c r="O541" s="7" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="545" spans="1:15">
       <c r="A545" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="M545" t="s">
+        <v>1900</v>
+      </c>
+      <c r="O545" s="7" t="s">
         <v>1901</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>1902</v>
-      </c>
-      <c r="M545" t="s">
-        <v>1903</v>
-      </c>
-      <c r="O545" s="7" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="546" spans="1:15">
       <c r="A546" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="M546" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O546" s="7" t="s">
         <v>1905</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="M546" t="s">
-        <v>1907</v>
-      </c>
-      <c r="O546" s="7" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="547" spans="1:15">
       <c r="A547" s="1" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="M547" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="O547" s="7" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="548" spans="1:15" ht="168.75">
       <c r="A548" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="M548" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="O548" s="7" t="s">
         <v>1910</v>
-      </c>
-      <c r="B548" s="5" t="s">
-        <v>1911</v>
-      </c>
-      <c r="M548" s="4" t="s">
-        <v>1912</v>
-      </c>
-      <c r="O548" s="7" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="549" spans="1:15" ht="56.25">
       <c r="A549" s="1" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="M549" s="4" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="O549" s="7"/>
     </row>
     <row r="551" spans="1:15">
       <c r="A551" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="M551" t="s">
+        <v>1915</v>
+      </c>
+      <c r="O551" s="7" t="s">
         <v>1916</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="M551" t="s">
-        <v>1918</v>
-      </c>
-      <c r="O551" s="7" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="552" spans="1:15">
       <c r="A552" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="M552" t="s">
+        <v>1919</v>
+      </c>
+      <c r="O552" s="7" t="s">
         <v>1920</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>1921</v>
-      </c>
-      <c r="M552" t="s">
-        <v>1922</v>
-      </c>
-      <c r="O552" s="7" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="553" spans="1:15">
       <c r="A553" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="M553" t="s">
+        <v>1923</v>
+      </c>
+      <c r="O553" s="7" t="s">
         <v>1924</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>1925</v>
-      </c>
-      <c r="M553" t="s">
-        <v>1926</v>
-      </c>
-      <c r="O553" s="7" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="554" spans="1:15">
       <c r="A554" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="M554" t="s">
+        <v>1927</v>
+      </c>
+      <c r="O554" s="7" t="s">
         <v>1928</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>1929</v>
-      </c>
-      <c r="M554" t="s">
-        <v>1930</v>
-      </c>
-      <c r="O554" s="7" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="555" spans="1:15">
       <c r="A555" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M555" t="s">
+        <v>1931</v>
+      </c>
+      <c r="O555" s="7" t="s">
         <v>1932</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>1933</v>
-      </c>
-      <c r="M555" t="s">
-        <v>1934</v>
-      </c>
-      <c r="O555" s="7" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="556" spans="1:15">
       <c r="A556" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M556" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O556" s="7" t="s">
         <v>1936</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>1937</v>
-      </c>
-      <c r="M556" t="s">
-        <v>1938</v>
-      </c>
-      <c r="O556" s="7" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="560" spans="1:15">
       <c r="A560" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="M560" t="s">
+        <v>1939</v>
+      </c>
+      <c r="O560" s="7" t="s">
         <v>1940</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>1941</v>
-      </c>
-      <c r="M560" t="s">
-        <v>1942</v>
-      </c>
-      <c r="O560" s="7" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="561" spans="1:15">
       <c r="A561" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="M561" t="s">
+        <v>1943</v>
+      </c>
+      <c r="O561" s="7" t="s">
         <v>1944</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="M561" t="s">
-        <v>1946</v>
-      </c>
-      <c r="O561" s="7" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="562" spans="1:15">
       <c r="A562" s="1" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="M562" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="O562" s="7" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="563" spans="1:15" ht="112.5">
       <c r="A563" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B563" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M563" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="O563" s="7" t="s">
         <v>1949</v>
-      </c>
-      <c r="B563" s="5" t="s">
-        <v>1950</v>
-      </c>
-      <c r="M563" s="4" t="s">
-        <v>1951</v>
-      </c>
-      <c r="O563" s="7" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="564" spans="1:15">
@@ -41620,77 +41697,77 @@
     </row>
     <row r="565" spans="1:15">
       <c r="A565" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M565" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="O565" s="7" t="s">
         <v>1953</v>
-      </c>
-      <c r="B565" s="5" t="s">
-        <v>1954</v>
-      </c>
-      <c r="M565" s="4" t="s">
-        <v>1955</v>
-      </c>
-      <c r="O565" s="7" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="566" spans="1:15">
       <c r="A566" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="M566" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="O566" s="7" t="s">
         <v>1957</v>
-      </c>
-      <c r="B566" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="M566" s="4" t="s">
-        <v>1959</v>
-      </c>
-      <c r="O566" s="7" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="567" spans="1:15">
       <c r="A567" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="M567" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="O567" s="7" t="s">
         <v>1961</v>
-      </c>
-      <c r="B567" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="M567" s="4" t="s">
-        <v>1963</v>
-      </c>
-      <c r="O567" s="7" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="568" spans="1:15">
       <c r="A568" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="M568" s="4" t="s">
+        <v>1964</v>
+      </c>
+      <c r="O568" s="7" t="s">
         <v>1965</v>
-      </c>
-      <c r="B568" s="5" t="s">
-        <v>1966</v>
-      </c>
-      <c r="M568" s="4" t="s">
-        <v>1967</v>
-      </c>
-      <c r="O568" s="7" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="569" spans="1:15">
       <c r="A569" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="M569" s="4" t="s">
+        <v>1968</v>
+      </c>
+      <c r="O569" s="7" t="s">
         <v>1969</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>1970</v>
-      </c>
-      <c r="M569" s="4" t="s">
-        <v>1971</v>
-      </c>
-      <c r="O569" s="7" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="570" spans="1:15">
       <c r="A570" s="1" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>1170</v>
@@ -41699,303 +41776,303 @@
         <v>1171</v>
       </c>
       <c r="O570" s="7" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="571" spans="1:15">
       <c r="A571" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M571" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="O571" s="7" t="s">
         <v>1975</v>
-      </c>
-      <c r="B571" s="5" t="s">
-        <v>1976</v>
-      </c>
-      <c r="M571" s="4" t="s">
-        <v>1977</v>
-      </c>
-      <c r="O571" s="7" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="575" spans="1:15">
       <c r="A575" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="M575" t="s">
+        <v>1978</v>
+      </c>
+      <c r="O575" s="7" t="s">
         <v>1979</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>1980</v>
-      </c>
-      <c r="M575" t="s">
-        <v>1981</v>
-      </c>
-      <c r="O575" s="7" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="576" spans="1:15">
       <c r="A576" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O576" s="7" t="s">
         <v>1983</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>1984</v>
-      </c>
-      <c r="M576" t="s">
-        <v>1985</v>
-      </c>
-      <c r="O576" s="7" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="577" spans="1:15">
       <c r="A577" s="1" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="M577" t="s">
+        <v>1982</v>
+      </c>
+      <c r="O577" s="7" t="s">
         <v>1985</v>
-      </c>
-      <c r="O577" s="7" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="578" spans="1:15" ht="131.25">
       <c r="A578" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M578" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O578" s="7" t="s">
         <v>1989</v>
-      </c>
-      <c r="B578" s="5" t="s">
-        <v>1990</v>
-      </c>
-      <c r="M578" s="4" t="s">
-        <v>1991</v>
-      </c>
-      <c r="O578" s="7" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="580" spans="1:15">
       <c r="A580" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="M580" t="s">
+        <v>1992</v>
+      </c>
+      <c r="O580" s="7" t="s">
         <v>1993</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="M580" t="s">
-        <v>1995</v>
-      </c>
-      <c r="O580" s="7" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="581" spans="1:15">
       <c r="A581" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1996</v>
+      </c>
+      <c r="O581" s="7" t="s">
         <v>1997</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>1998</v>
-      </c>
-      <c r="M581" t="s">
-        <v>1999</v>
-      </c>
-      <c r="O581" s="7" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="582" spans="1:15">
       <c r="A582" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M582" t="s">
+        <v>2000</v>
+      </c>
+      <c r="O582" s="7" t="s">
         <v>2001</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>2002</v>
-      </c>
-      <c r="M582" t="s">
-        <v>2003</v>
-      </c>
-      <c r="O582" s="7" t="s">
-        <v>2004</v>
       </c>
     </row>
     <row r="583" spans="1:15">
       <c r="A583" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="M583" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O583" s="7" t="s">
         <v>2005</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="M583" t="s">
-        <v>2007</v>
-      </c>
-      <c r="O583" s="7" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="584" spans="1:15">
       <c r="A584" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="M584" t="s">
+        <v>2008</v>
+      </c>
+      <c r="O584" s="7" t="s">
         <v>2009</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="M584" t="s">
-        <v>2011</v>
-      </c>
-      <c r="O584" s="7" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="585" spans="1:15">
       <c r="A585" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="M585" t="s">
+        <v>2012</v>
+      </c>
+      <c r="O585" s="7" t="s">
         <v>2013</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>2014</v>
-      </c>
-      <c r="M585" t="s">
-        <v>2015</v>
-      </c>
-      <c r="O585" s="7" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="586" spans="1:15">
       <c r="A586" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="M586" t="s">
+        <v>2016</v>
+      </c>
+      <c r="O586" s="7" t="s">
         <v>2017</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="M586" t="s">
-        <v>2019</v>
-      </c>
-      <c r="O586" s="7" t="s">
-        <v>2020</v>
       </c>
     </row>
     <row r="587" spans="1:15">
       <c r="A587" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M587" t="s">
+        <v>2020</v>
+      </c>
+      <c r="O587" s="7" t="s">
         <v>2021</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>2022</v>
-      </c>
-      <c r="M587" t="s">
-        <v>2023</v>
-      </c>
-      <c r="O587" s="7" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="589" spans="1:15">
       <c r="A589" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M589" t="s">
+        <v>2024</v>
+      </c>
+      <c r="O589" s="7" t="s">
         <v>2025</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>2026</v>
-      </c>
-      <c r="M589" t="s">
-        <v>2027</v>
-      </c>
-      <c r="O589" s="7" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="590" spans="1:15">
       <c r="A590" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M590" t="s">
+        <v>2028</v>
+      </c>
+      <c r="O590" s="7" t="s">
         <v>2029</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>2030</v>
-      </c>
-      <c r="M590" t="s">
-        <v>2031</v>
-      </c>
-      <c r="O590" s="7" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="592" spans="1:15">
       <c r="A592" s="1" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="M592" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="O592" s="7" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="593" spans="1:15">
       <c r="A593" s="1" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>1798</v>
       </c>
       <c r="M593" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="O593" s="7" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="597" spans="1:15">
       <c r="A597" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M597" t="s">
+        <v>2037</v>
+      </c>
+      <c r="O597" s="7" t="s">
         <v>2038</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>2039</v>
-      </c>
-      <c r="M597" t="s">
-        <v>2040</v>
-      </c>
-      <c r="O597" s="7" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="598" spans="1:15">
       <c r="A598" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="M598" t="s">
+        <v>2041</v>
+      </c>
+      <c r="O598" s="7" t="s">
         <v>2042</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="M598" t="s">
-        <v>2044</v>
-      </c>
-      <c r="O598" s="7" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="599" spans="1:15">
       <c r="A599" s="1" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="M599" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="O599" s="7" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="600" spans="1:15" ht="93.75">
       <c r="A600" s="1" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="M600" s="4" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="O600" s="7" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="602" spans="1:15">
       <c r="A602" s="1" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>846</v>
@@ -42004,91 +42081,91 @@
         <v>1163</v>
       </c>
       <c r="O602" s="7" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="603" spans="1:15">
       <c r="A603" s="1" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="M603" t="s">
         <v>595</v>
       </c>
       <c r="O603" s="7" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="604" spans="1:15">
       <c r="A604" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="M604" t="s">
+        <v>2054</v>
+      </c>
+      <c r="O604" s="7" t="s">
         <v>2055</v>
-      </c>
-      <c r="B604" s="1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="M604" t="s">
-        <v>2057</v>
-      </c>
-      <c r="O604" s="7" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="608" spans="1:15">
       <c r="A608" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="M608" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O608" s="7" t="s">
         <v>2059</v>
-      </c>
-      <c r="B608" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="M608" t="s">
-        <v>2061</v>
-      </c>
-      <c r="O608" s="7" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="609" spans="1:15">
       <c r="A609" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="M609" t="s">
+        <v>2062</v>
+      </c>
+      <c r="O609" s="7" t="s">
         <v>2063</v>
-      </c>
-      <c r="B609" s="1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="M609" t="s">
-        <v>2065</v>
-      </c>
-      <c r="O609" s="7" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="610" spans="1:15">
       <c r="A610" s="1" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="M610" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="O610" s="7" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="611" spans="1:15" ht="168.75">
       <c r="A611" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B611" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="M611" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="O611" s="7" t="s">
         <v>2068</v>
-      </c>
-      <c r="B611" s="5" t="s">
-        <v>2069</v>
-      </c>
-      <c r="M611" s="4" t="s">
-        <v>2070</v>
-      </c>
-      <c r="O611" s="7" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="612" spans="1:15">
@@ -42098,114 +42175,114 @@
     </row>
     <row r="613" spans="1:15">
       <c r="A613" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B613" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="M613" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="O613" s="7" t="s">
         <v>2072</v>
-      </c>
-      <c r="B613" s="5" t="s">
-        <v>2073</v>
-      </c>
-      <c r="M613" s="4" t="s">
-        <v>2074</v>
-      </c>
-      <c r="O613" s="7" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="614" spans="1:15">
       <c r="A614" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="M614" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="O614" s="7" t="s">
         <v>2076</v>
-      </c>
-      <c r="B614" s="5" t="s">
-        <v>2077</v>
-      </c>
-      <c r="M614" s="4" t="s">
-        <v>2078</v>
-      </c>
-      <c r="O614" s="7" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="615" spans="1:15">
       <c r="A615" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>2078</v>
+      </c>
+      <c r="M615" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="O615" s="7" t="s">
         <v>2080</v>
-      </c>
-      <c r="B615" s="5" t="s">
-        <v>2081</v>
-      </c>
-      <c r="M615" s="4" t="s">
-        <v>2082</v>
-      </c>
-      <c r="O615" s="7" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="616" spans="1:15">
       <c r="A616" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>2082</v>
+      </c>
+      <c r="M616" s="4" t="s">
+        <v>2083</v>
+      </c>
+      <c r="O616" s="11" t="s">
         <v>2084</v>
-      </c>
-      <c r="B616" s="5" t="s">
-        <v>2085</v>
-      </c>
-      <c r="M616" s="4" t="s">
-        <v>2086</v>
-      </c>
-      <c r="O616" s="11" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="620" spans="1:15">
       <c r="A620" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="M620" t="s">
+        <v>2087</v>
+      </c>
+      <c r="O620" s="7" t="s">
         <v>2088</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>2089</v>
-      </c>
-      <c r="M620" t="s">
-        <v>2090</v>
-      </c>
-      <c r="O620" s="7" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="621" spans="1:15">
       <c r="A621" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="M621" t="s">
+        <v>2091</v>
+      </c>
+      <c r="O621" s="7" t="s">
         <v>2092</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>2093</v>
-      </c>
-      <c r="M621" t="s">
-        <v>2094</v>
-      </c>
-      <c r="O621" s="7" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="622" spans="1:15">
       <c r="A622" s="1" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="M622" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="O622" s="7" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="623" spans="1:15" ht="187.5">
       <c r="A623" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>2095</v>
+      </c>
+      <c r="M623" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="O623" s="7" t="s">
         <v>2097</v>
-      </c>
-      <c r="B623" s="5" t="s">
-        <v>2098</v>
-      </c>
-      <c r="M623" s="4" t="s">
-        <v>2099</v>
-      </c>
-      <c r="O623" s="7" t="s">
-        <v>2100</v>
       </c>
     </row>
     <row r="624" spans="1:15">
@@ -42213,198 +42290,198 @@
     </row>
     <row r="625" spans="1:15">
       <c r="A625" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="M625" t="s">
+        <v>2100</v>
+      </c>
+      <c r="O625" s="11" t="s">
         <v>2101</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>2102</v>
-      </c>
-      <c r="M625" t="s">
-        <v>2103</v>
-      </c>
-      <c r="O625" s="11" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="626" spans="1:15">
       <c r="A626" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="M626" t="s">
+        <v>2104</v>
+      </c>
+      <c r="O626" s="11" t="s">
         <v>2105</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>2106</v>
-      </c>
-      <c r="M626" t="s">
-        <v>2107</v>
-      </c>
-      <c r="O626" s="11" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="627" spans="1:15">
       <c r="A627" s="1" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="M627" t="s">
         <v>530</v>
       </c>
       <c r="O627" s="11" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="628" spans="1:15">
       <c r="A628" s="1" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="M628" t="s">
         <v>538</v>
       </c>
       <c r="O628" s="11" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="629" spans="1:15">
       <c r="A629" s="1" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="M629" t="s">
         <v>534</v>
       </c>
       <c r="O629" s="11" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="630" spans="1:15">
       <c r="A630" s="1" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="M630" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="O630" s="11" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="631" spans="1:15">
       <c r="A631" s="1" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="M631" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="O631" s="11" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="632" spans="1:15">
       <c r="A632" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="M632" t="s">
+        <v>2123</v>
+      </c>
+      <c r="O632" s="11" t="s">
         <v>2124</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>2125</v>
-      </c>
-      <c r="M632" t="s">
-        <v>2126</v>
-      </c>
-      <c r="O632" s="11" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="633" spans="1:15">
       <c r="A633" s="1" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="M633" t="s">
         <v>1276</v>
       </c>
       <c r="O633" s="11" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="634" spans="1:15">
       <c r="A634" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M634" t="s">
+        <v>2130</v>
+      </c>
+      <c r="O634" s="11" t="s">
         <v>2131</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="M634" t="s">
-        <v>2133</v>
-      </c>
-      <c r="O634" s="11" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="638" spans="1:15">
       <c r="A638" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="M638" t="s">
+        <v>2134</v>
+      </c>
+      <c r="O638" s="11" t="s">
         <v>2135</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>2136</v>
-      </c>
-      <c r="M638" t="s">
-        <v>2137</v>
-      </c>
-      <c r="O638" s="11" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="639" spans="1:15">
       <c r="A639" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="M639" t="s">
+        <v>2138</v>
+      </c>
+      <c r="O639" s="11" t="s">
         <v>2139</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="M639" t="s">
-        <v>2141</v>
-      </c>
-      <c r="O639" s="11" t="s">
-        <v>2142</v>
       </c>
     </row>
     <row r="640" spans="1:15">
       <c r="A640" s="1" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="M640" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="O640" s="11" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="641" spans="1:15" ht="112.5">
       <c r="A641" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B641" s="5" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M641" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="O641" s="7" t="s">
         <v>2144</v>
-      </c>
-      <c r="B641" s="5" t="s">
-        <v>2145</v>
-      </c>
-      <c r="M641" s="4" t="s">
-        <v>2146</v>
-      </c>
-      <c r="O641" s="7" t="s">
-        <v>2147</v>
       </c>
     </row>
     <row r="642" spans="1:15">
@@ -42412,72 +42489,72 @@
     </row>
     <row r="643" spans="1:15">
       <c r="A643" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M643" t="s">
+        <v>2147</v>
+      </c>
+      <c r="O643" s="11" t="s">
         <v>2148</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>2149</v>
-      </c>
-      <c r="M643" t="s">
-        <v>2150</v>
-      </c>
-      <c r="O643" s="11" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="647" spans="1:15">
       <c r="A647" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="M647" t="s">
+        <v>2151</v>
+      </c>
+      <c r="O647" s="11" t="s">
         <v>2152</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>2153</v>
-      </c>
-      <c r="M647" t="s">
-        <v>2154</v>
-      </c>
-      <c r="O647" s="11" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="648" spans="1:15">
       <c r="A648" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M648" t="s">
+        <v>2155</v>
+      </c>
+      <c r="O648" s="11" t="s">
         <v>2156</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="M648" t="s">
-        <v>2158</v>
-      </c>
-      <c r="O648" s="11" t="s">
-        <v>2159</v>
       </c>
     </row>
     <row r="649" spans="1:15">
       <c r="A649" s="1" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="M649" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="O649" s="11" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="650" spans="1:15" ht="243.75">
       <c r="A650" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M650" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="O650" s="7" t="s">
         <v>2161</v>
-      </c>
-      <c r="B650" s="5" t="s">
-        <v>2162</v>
-      </c>
-      <c r="M650" s="4" t="s">
-        <v>2163</v>
-      </c>
-      <c r="O650" s="7" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="651" spans="1:15">
@@ -42485,100 +42562,100 @@
     </row>
     <row r="652" spans="1:15">
       <c r="A652" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M652" t="s">
+        <v>2164</v>
+      </c>
+      <c r="O652" s="11" t="s">
         <v>2165</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>2166</v>
-      </c>
-      <c r="M652" t="s">
-        <v>2167</v>
-      </c>
-      <c r="O652" s="11" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="653" spans="1:15">
       <c r="A653" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="M653" t="s">
+        <v>2168</v>
+      </c>
+      <c r="O653" s="11" t="s">
         <v>2169</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="M653" t="s">
-        <v>2171</v>
-      </c>
-      <c r="O653" s="11" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="654" spans="1:15">
       <c r="A654" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M654" t="s">
+        <v>2172</v>
+      </c>
+      <c r="O654" s="11" t="s">
         <v>2173</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>2174</v>
-      </c>
-      <c r="M654" t="s">
-        <v>2175</v>
-      </c>
-      <c r="O654" s="11" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="655" spans="1:15">
       <c r="A655" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="M655" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O655" s="11" t="s">
         <v>2177</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="M655" t="s">
-        <v>2179</v>
-      </c>
-      <c r="O655" s="11" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="656" spans="1:15">
       <c r="A656" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="M656" t="s">
+        <v>2180</v>
+      </c>
+      <c r="O656" s="11" t="s">
         <v>2181</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>2182</v>
-      </c>
-      <c r="M656" t="s">
-        <v>2183</v>
-      </c>
-      <c r="O656" s="11" t="s">
-        <v>2184</v>
       </c>
     </row>
     <row r="657" spans="1:15">
       <c r="A657" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="M657" t="s">
+        <v>2184</v>
+      </c>
+      <c r="O657" s="11" t="s">
         <v>2185</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>2186</v>
-      </c>
-      <c r="M657" t="s">
-        <v>2187</v>
-      </c>
-      <c r="O657" s="11" t="s">
-        <v>2188</v>
       </c>
     </row>
     <row r="658" spans="1:15">
       <c r="A658" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="M658" t="s">
+        <v>2188</v>
+      </c>
+      <c r="O658" s="11" t="s">
         <v>2189</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="M658" t="s">
-        <v>2191</v>
-      </c>
-      <c r="O658" s="11" t="s">
-        <v>2192</v>
       </c>
     </row>
     <row r="659" spans="1:15">
@@ -42586,30 +42663,30 @@
     </row>
     <row r="660" spans="1:15">
       <c r="A660" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="M660" t="s">
+        <v>2192</v>
+      </c>
+      <c r="O660" s="11" t="s">
         <v>2193</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>2194</v>
-      </c>
-      <c r="M660" t="s">
-        <v>2195</v>
-      </c>
-      <c r="O660" s="11" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="661" spans="1:15">
       <c r="A661" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="M661" t="s">
+        <v>2196</v>
+      </c>
+      <c r="O661" s="11" t="s">
         <v>2197</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>2198</v>
-      </c>
-      <c r="M661" t="s">
-        <v>2199</v>
-      </c>
-      <c r="O661" s="11" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="662" spans="1:15">
@@ -42617,590 +42694,590 @@
     </row>
     <row r="663" spans="1:15">
       <c r="A663" s="1" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="M663" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="O663" s="11" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="665" spans="1:15">
       <c r="A665" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="M665" t="s">
+        <v>2203</v>
+      </c>
+      <c r="O665" s="11" t="s">
         <v>2204</v>
-      </c>
-      <c r="B665" s="1" t="s">
-        <v>2205</v>
-      </c>
-      <c r="M665" t="s">
-        <v>2206</v>
-      </c>
-      <c r="O665" s="11" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="667" spans="1:15">
       <c r="A667" s="1" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M667" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="O667" s="11" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="668" spans="1:15">
       <c r="A668" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="M668" t="s">
+        <v>2210</v>
+      </c>
+      <c r="O668" s="11" t="s">
         <v>2211</v>
-      </c>
-      <c r="B668" s="1" t="s">
-        <v>2212</v>
-      </c>
-      <c r="M668" t="s">
-        <v>2213</v>
-      </c>
-      <c r="O668" s="11" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="669" spans="1:15">
       <c r="A669" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="M669" t="s">
+        <v>2214</v>
+      </c>
+      <c r="O669" s="11" t="s">
         <v>2215</v>
-      </c>
-      <c r="B669" s="1" t="s">
-        <v>2216</v>
-      </c>
-      <c r="M669" t="s">
-        <v>2217</v>
-      </c>
-      <c r="O669" s="11" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="670" spans="1:15">
       <c r="A670" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="M670" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="O670" s="12" t="s">
         <v>2219</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>2220</v>
-      </c>
-      <c r="M670" s="1" t="s">
-        <v>2221</v>
-      </c>
-      <c r="O670" s="12" t="s">
-        <v>2222</v>
       </c>
     </row>
     <row r="671" spans="1:15">
       <c r="A671" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="M671" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="O671" s="12" t="s">
         <v>2223</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>2224</v>
-      </c>
-      <c r="M671" s="1" t="s">
-        <v>2225</v>
-      </c>
-      <c r="O671" s="12" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="672" spans="1:15">
       <c r="A672" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M672" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="O672" s="12" t="s">
         <v>2227</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>2228</v>
-      </c>
-      <c r="M672" s="1" t="s">
-        <v>2229</v>
-      </c>
-      <c r="O672" s="12" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="673" spans="1:15">
       <c r="A673" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="M673" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="O673" s="12" t="s">
         <v>2231</v>
-      </c>
-      <c r="B673" s="1" t="s">
-        <v>2232</v>
-      </c>
-      <c r="M673" s="1" t="s">
-        <v>2233</v>
-      </c>
-      <c r="O673" s="12" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="677" spans="1:15">
       <c r="A677" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="M677" t="s">
+        <v>2234</v>
+      </c>
+      <c r="O677" s="7" t="s">
         <v>2235</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>2236</v>
-      </c>
-      <c r="M677" t="s">
-        <v>2237</v>
-      </c>
-      <c r="O677" s="7" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="679" spans="1:15">
       <c r="A679" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="M679" t="s">
+        <v>2238</v>
+      </c>
+      <c r="O679" s="7" t="s">
         <v>2239</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>2240</v>
-      </c>
-      <c r="M679" t="s">
-        <v>2241</v>
-      </c>
-      <c r="O679" s="7" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="680" spans="1:15">
       <c r="A680" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="M680" t="s">
+        <v>2242</v>
+      </c>
+      <c r="O680" s="7" t="s">
         <v>2243</v>
-      </c>
-      <c r="B680" s="1" t="s">
-        <v>2244</v>
-      </c>
-      <c r="M680" t="s">
-        <v>2245</v>
-      </c>
-      <c r="O680" s="7" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="681" spans="1:15">
       <c r="A681" s="1" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="M681" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="O681" s="7" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="682" spans="1:15">
       <c r="A682" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="M682" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="O682" s="7" t="s">
         <v>2248</v>
-      </c>
-      <c r="B682" s="5" t="s">
-        <v>2249</v>
-      </c>
-      <c r="M682" s="4" t="s">
-        <v>2250</v>
-      </c>
-      <c r="O682" s="7" t="s">
-        <v>2251</v>
       </c>
     </row>
     <row r="684" spans="1:15">
       <c r="A684" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M684" t="s">
+        <v>2251</v>
+      </c>
+      <c r="O684" s="7" t="s">
         <v>2252</v>
-      </c>
-      <c r="B684" s="1" t="s">
-        <v>2253</v>
-      </c>
-      <c r="M684" t="s">
-        <v>2254</v>
-      </c>
-      <c r="O684" s="7" t="s">
-        <v>2255</v>
       </c>
     </row>
     <row r="685" spans="1:15">
       <c r="A685" s="1" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="M685" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="O685" s="7" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="686" spans="1:15">
       <c r="A686" s="1" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="M686" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="O686" s="7" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="687" spans="1:15">
       <c r="A687" s="1" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="B687" s="5" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="M687" s="4" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="O687" s="7" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="691" spans="1:15">
       <c r="A691" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="M691" t="s">
+        <v>2258</v>
+      </c>
+      <c r="O691" s="3" t="s">
         <v>2259</v>
-      </c>
-      <c r="B691" s="1" t="s">
-        <v>2260</v>
-      </c>
-      <c r="M691" t="s">
-        <v>2261</v>
-      </c>
-      <c r="O691" s="3" t="s">
-        <v>2262</v>
       </c>
     </row>
     <row r="695" spans="1:15">
       <c r="A695" s="1" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="M695" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="O695" s="3" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="696" spans="1:15">
       <c r="A696" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="M696" t="s">
+        <v>2263</v>
+      </c>
+      <c r="O696" s="3" t="s">
         <v>2264</v>
-      </c>
-      <c r="B696" s="1" t="s">
-        <v>2265</v>
-      </c>
-      <c r="M696" t="s">
-        <v>2266</v>
-      </c>
-      <c r="O696" s="3" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="697" spans="1:15">
       <c r="A697" s="1" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="M697" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="O697" s="3" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="701" spans="1:15">
       <c r="A701" s="1" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="B701" s="1" t="s">
         <v>53</v>
       </c>
       <c r="M701" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="O701" s="3" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="702" spans="1:15">
       <c r="A702" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="M702" t="s">
+        <v>2269</v>
+      </c>
+      <c r="O702" s="3" t="s">
         <v>2270</v>
-      </c>
-      <c r="B702" s="1" t="s">
-        <v>2271</v>
-      </c>
-      <c r="M702" t="s">
-        <v>2272</v>
-      </c>
-      <c r="O702" s="3" t="s">
-        <v>2273</v>
       </c>
     </row>
     <row r="703" spans="1:15">
       <c r="A703" s="1" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="M703" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="O703" s="3" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="707" spans="1:15">
       <c r="A707" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="M707" t="s">
+        <v>2274</v>
+      </c>
+      <c r="O707" s="3" t="s">
         <v>2275</v>
-      </c>
-      <c r="B707" s="1" t="s">
-        <v>2276</v>
-      </c>
-      <c r="M707" t="s">
-        <v>2277</v>
-      </c>
-      <c r="O707" s="3" t="s">
-        <v>2278</v>
       </c>
     </row>
     <row r="708" spans="1:15">
       <c r="A708" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="M708" t="s">
+        <v>2278</v>
+      </c>
+      <c r="O708" s="3" t="s">
         <v>2279</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>2280</v>
-      </c>
-      <c r="M708" t="s">
-        <v>2281</v>
-      </c>
-      <c r="O708" s="3" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="709" spans="1:15">
       <c r="A709" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="M709" t="s">
+        <v>2282</v>
+      </c>
+      <c r="O709" s="3" t="s">
         <v>2283</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>2284</v>
-      </c>
-      <c r="M709" t="s">
-        <v>2285</v>
-      </c>
-      <c r="O709" s="3" t="s">
-        <v>2286</v>
       </c>
     </row>
     <row r="711" spans="1:15">
       <c r="A711" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="M711" t="s">
+        <v>2286</v>
+      </c>
+      <c r="O711" s="3" t="s">
         <v>2287</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="M711" t="s">
-        <v>2289</v>
-      </c>
-      <c r="O711" s="3" t="s">
-        <v>2290</v>
       </c>
     </row>
     <row r="712" spans="1:15">
       <c r="A712" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="M712" t="s">
+        <v>2290</v>
+      </c>
+      <c r="O712" s="3" t="s">
         <v>2291</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>2292</v>
-      </c>
-      <c r="M712" t="s">
-        <v>2293</v>
-      </c>
-      <c r="O712" s="3" t="s">
-        <v>2294</v>
       </c>
     </row>
     <row r="713" spans="1:15">
       <c r="A713" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="M713" t="s">
+        <v>2294</v>
+      </c>
+      <c r="O713" s="3" t="s">
         <v>2295</v>
-      </c>
-      <c r="B713" s="1" t="s">
-        <v>2296</v>
-      </c>
-      <c r="M713" t="s">
-        <v>2297</v>
-      </c>
-      <c r="O713" s="3" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="714" spans="1:15">
       <c r="A714" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="M714" t="s">
+        <v>2298</v>
+      </c>
+      <c r="O714" s="3" t="s">
         <v>2299</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>2300</v>
-      </c>
-      <c r="M714" t="s">
-        <v>2301</v>
-      </c>
-      <c r="O714" s="3" t="s">
-        <v>2302</v>
       </c>
     </row>
     <row r="715" spans="1:15">
       <c r="A715" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="M715" t="s">
+        <v>2302</v>
+      </c>
+      <c r="O715" s="3" t="s">
         <v>2303</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>2304</v>
-      </c>
-      <c r="M715" t="s">
-        <v>2305</v>
-      </c>
-      <c r="O715" s="3" t="s">
-        <v>2306</v>
       </c>
     </row>
     <row r="716" spans="1:15">
       <c r="A716" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="M716" t="s">
+        <v>2306</v>
+      </c>
+      <c r="O716" s="3" t="s">
         <v>2307</v>
-      </c>
-      <c r="B716" s="1" t="s">
-        <v>2308</v>
-      </c>
-      <c r="M716" t="s">
-        <v>2309</v>
-      </c>
-      <c r="O716" s="3" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="717" spans="1:15">
       <c r="A717" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="M717" t="s">
+        <v>2310</v>
+      </c>
+      <c r="O717" s="3" t="s">
         <v>2311</v>
-      </c>
-      <c r="B717" s="1" t="s">
-        <v>2312</v>
-      </c>
-      <c r="M717" t="s">
-        <v>2313</v>
-      </c>
-      <c r="O717" s="3" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="718" spans="1:15">
       <c r="A718" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="M718" t="s">
+        <v>2314</v>
+      </c>
+      <c r="O718" s="7" t="s">
         <v>2315</v>
-      </c>
-      <c r="B718" s="1" t="s">
-        <v>2316</v>
-      </c>
-      <c r="M718" t="s">
-        <v>2317</v>
-      </c>
-      <c r="O718" s="7" t="s">
-        <v>2318</v>
       </c>
     </row>
     <row r="720" spans="1:15">
       <c r="A720" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="M720" t="s">
+        <v>2318</v>
+      </c>
+      <c r="O720" s="3" t="s">
         <v>2319</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>2320</v>
-      </c>
-      <c r="M720" t="s">
-        <v>2321</v>
-      </c>
-      <c r="O720" s="3" t="s">
-        <v>2322</v>
       </c>
     </row>
     <row r="721" spans="1:15">
       <c r="A721" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="M721" t="s">
+        <v>2322</v>
+      </c>
+      <c r="O721" s="3" t="s">
         <v>2323</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>2324</v>
-      </c>
-      <c r="M721" t="s">
-        <v>2325</v>
-      </c>
-      <c r="O721" s="3" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="722" spans="1:15">
       <c r="A722" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="M722" t="s">
+        <v>2326</v>
+      </c>
+      <c r="O722" s="3" t="s">
         <v>2327</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>2328</v>
-      </c>
-      <c r="M722" t="s">
-        <v>2329</v>
-      </c>
-      <c r="O722" s="3" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="723" spans="1:15">
       <c r="A723" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="M723" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O723" s="3" t="s">
         <v>2331</v>
-      </c>
-      <c r="B723" s="1" t="s">
-        <v>2332</v>
-      </c>
-      <c r="M723" t="s">
-        <v>2333</v>
-      </c>
-      <c r="O723" s="3" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="724" spans="1:15">
       <c r="A724" s="1" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="M724" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="O724" s="34" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="725" spans="1:15">
       <c r="A725" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="M725" t="s">
+        <v>2337</v>
+      </c>
+      <c r="O725" s="3" t="s">
         <v>2338</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>2339</v>
-      </c>
-      <c r="M725" t="s">
-        <v>2340</v>
-      </c>
-      <c r="O725" s="3" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="726" spans="1:15">
@@ -43208,430 +43285,430 @@
     </row>
     <row r="727" spans="1:15">
       <c r="A727" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="M727" t="s">
+        <v>2341</v>
+      </c>
+      <c r="O727" s="3" t="s">
         <v>2342</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>2343</v>
-      </c>
-      <c r="M727" t="s">
-        <v>2344</v>
-      </c>
-      <c r="O727" s="3" t="s">
-        <v>2345</v>
       </c>
     </row>
     <row r="728" spans="1:15">
       <c r="A728" s="1" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>1798</v>
       </c>
       <c r="M728" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="O728" s="3" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="730" spans="1:15">
       <c r="A730" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="M730" t="s">
+        <v>2348</v>
+      </c>
+      <c r="O730" s="3" t="s">
         <v>2349</v>
-      </c>
-      <c r="B730" s="1" t="s">
-        <v>2350</v>
-      </c>
-      <c r="M730" t="s">
-        <v>2351</v>
-      </c>
-      <c r="O730" s="3" t="s">
-        <v>2352</v>
       </c>
     </row>
     <row r="731" spans="1:15">
       <c r="A731" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="M731" t="s">
+        <v>2352</v>
+      </c>
+      <c r="O731" s="3" t="s">
         <v>2353</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="M731" t="s">
-        <v>2355</v>
-      </c>
-      <c r="O731" s="3" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="732" spans="1:15">
       <c r="A732" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M732" t="s">
+        <v>2356</v>
+      </c>
+      <c r="O732" s="3" t="s">
         <v>2357</v>
-      </c>
-      <c r="B732" s="1" t="s">
-        <v>2358</v>
-      </c>
-      <c r="M732" t="s">
-        <v>2359</v>
-      </c>
-      <c r="O732" s="3" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="733" spans="1:15">
       <c r="A733" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="M733" t="s">
+        <v>2360</v>
+      </c>
+      <c r="O733" s="3" t="s">
         <v>2361</v>
-      </c>
-      <c r="B733" s="1" t="s">
-        <v>2362</v>
-      </c>
-      <c r="M733" t="s">
-        <v>2363</v>
-      </c>
-      <c r="O733" s="3" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="734" spans="1:15">
       <c r="A734" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="M734" t="s">
+        <v>2364</v>
+      </c>
+      <c r="O734" s="3" t="s">
         <v>2365</v>
-      </c>
-      <c r="B734" s="1" t="s">
-        <v>2366</v>
-      </c>
-      <c r="M734" t="s">
-        <v>2367</v>
-      </c>
-      <c r="O734" s="3" t="s">
-        <v>2368</v>
       </c>
     </row>
     <row r="735" spans="1:15">
       <c r="A735" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M735" t="s">
+        <v>2368</v>
+      </c>
+      <c r="O735" s="3" t="s">
         <v>2369</v>
-      </c>
-      <c r="B735" s="1" t="s">
-        <v>2370</v>
-      </c>
-      <c r="M735" t="s">
-        <v>2371</v>
-      </c>
-      <c r="O735" s="3" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="736" spans="1:15">
       <c r="A736" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="M736" t="s">
+        <v>2372</v>
+      </c>
+      <c r="O736" s="3" t="s">
         <v>2373</v>
-      </c>
-      <c r="B736" s="1" t="s">
-        <v>2374</v>
-      </c>
-      <c r="M736" t="s">
-        <v>2375</v>
-      </c>
-      <c r="O736" s="3" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="737" spans="1:15">
       <c r="A737" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="M737" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O737" s="3" t="s">
         <v>2377</v>
-      </c>
-      <c r="B737" s="1" t="s">
-        <v>2378</v>
-      </c>
-      <c r="M737" t="s">
-        <v>2379</v>
-      </c>
-      <c r="O737" s="3" t="s">
-        <v>2380</v>
       </c>
     </row>
     <row r="738" spans="1:15">
       <c r="A738" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="M738" t="s">
+        <v>2380</v>
+      </c>
+      <c r="O738" s="3" t="s">
         <v>2381</v>
-      </c>
-      <c r="B738" s="1" t="s">
-        <v>2382</v>
-      </c>
-      <c r="M738" t="s">
-        <v>2383</v>
-      </c>
-      <c r="O738" s="3" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="739" spans="1:15">
       <c r="A739" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="M739" t="s">
+        <v>2384</v>
+      </c>
+      <c r="O739" s="3" t="s">
         <v>2385</v>
-      </c>
-      <c r="B739" s="1" t="s">
-        <v>2386</v>
-      </c>
-      <c r="M739" t="s">
-        <v>2387</v>
-      </c>
-      <c r="O739" s="3" t="s">
-        <v>2388</v>
       </c>
     </row>
     <row r="741" spans="1:15">
       <c r="A741" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="M741" t="s">
+        <v>2388</v>
+      </c>
+      <c r="O741" s="3" t="s">
         <v>2389</v>
-      </c>
-      <c r="B741" s="1" t="s">
-        <v>2390</v>
-      </c>
-      <c r="M741" t="s">
-        <v>2391</v>
-      </c>
-      <c r="O741" s="3" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="742" spans="1:15">
       <c r="A742" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="M742" t="s">
+        <v>2392</v>
+      </c>
+      <c r="O742" s="7" t="s">
         <v>2393</v>
-      </c>
-      <c r="B742" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="M742" t="s">
-        <v>2395</v>
-      </c>
-      <c r="O742" s="7" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="743" spans="1:15">
       <c r="A743" s="1" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="M743" t="s">
         <v>991</v>
       </c>
       <c r="O743" s="7" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="745" spans="1:15">
       <c r="A745" s="1" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="M745" t="s">
         <v>530</v>
       </c>
       <c r="O745" s="11" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="746" spans="1:15">
       <c r="A746" s="1" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="M746" t="s">
         <v>538</v>
       </c>
       <c r="O746" s="11" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="747" spans="1:15">
       <c r="A747" s="1" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="M747" t="s">
         <v>534</v>
       </c>
       <c r="O747" s="11" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="751" spans="1:15">
       <c r="A751" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="M751" t="s">
+        <v>2402</v>
+      </c>
+      <c r="O751" s="3" t="s">
         <v>2403</v>
-      </c>
-      <c r="B751" s="1" t="s">
-        <v>2404</v>
-      </c>
-      <c r="M751" t="s">
-        <v>2405</v>
-      </c>
-      <c r="O751" s="3" t="s">
-        <v>2406</v>
       </c>
     </row>
     <row r="752" spans="1:15">
       <c r="A752" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="M752" t="s">
+        <v>2406</v>
+      </c>
+      <c r="O752" s="3" t="s">
         <v>2407</v>
-      </c>
-      <c r="B752" s="1" t="s">
-        <v>2408</v>
-      </c>
-      <c r="M752" t="s">
-        <v>2409</v>
-      </c>
-      <c r="O752" s="3" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="754" spans="1:15">
       <c r="A754" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="M754" t="s">
+        <v>2410</v>
+      </c>
+      <c r="O754" s="3" t="s">
         <v>2411</v>
-      </c>
-      <c r="B754" s="1" t="s">
-        <v>2412</v>
-      </c>
-      <c r="M754" t="s">
-        <v>2413</v>
-      </c>
-      <c r="O754" s="3" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="755" spans="1:15">
       <c r="A755" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="M755" t="s">
+        <v>2414</v>
+      </c>
+      <c r="O755" s="3" t="s">
         <v>2415</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="M755" t="s">
-        <v>2417</v>
-      </c>
-      <c r="O755" s="3" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="756" spans="1:15">
       <c r="A756" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="M756" t="s">
+        <v>2418</v>
+      </c>
+      <c r="O756" s="3" t="s">
         <v>2419</v>
-      </c>
-      <c r="B756" s="1" t="s">
-        <v>2420</v>
-      </c>
-      <c r="M756" t="s">
-        <v>2421</v>
-      </c>
-      <c r="O756" s="3" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="758" spans="1:15">
       <c r="A758" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="M758" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="O758" s="3" t="s">
         <v>2423</v>
-      </c>
-      <c r="B758" s="1" t="s">
-        <v>2424</v>
-      </c>
-      <c r="M758" s="1" t="s">
-        <v>2425</v>
-      </c>
-      <c r="O758" s="3" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="760" spans="1:15">
       <c r="A760" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="M760" t="s">
+        <v>2426</v>
+      </c>
+      <c r="O760" s="3" t="s">
         <v>2427</v>
-      </c>
-      <c r="B760" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="M760" t="s">
-        <v>2429</v>
-      </c>
-      <c r="O760" s="3" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="762" spans="1:15">
       <c r="A762" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M762" t="s">
+        <v>2430</v>
+      </c>
+      <c r="O762" s="3" t="s">
         <v>2431</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>2432</v>
-      </c>
-      <c r="M762" t="s">
-        <v>2433</v>
-      </c>
-      <c r="O762" s="3" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="763" spans="1:15">
       <c r="A763" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="M763" t="s">
+        <v>2434</v>
+      </c>
+      <c r="O763" s="3" t="s">
         <v>2435</v>
-      </c>
-      <c r="B763" s="1" t="s">
-        <v>2436</v>
-      </c>
-      <c r="M763" t="s">
-        <v>2437</v>
-      </c>
-      <c r="O763" s="3" t="s">
-        <v>2438</v>
       </c>
     </row>
     <row r="764" spans="1:15">
       <c r="A764" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="M764" t="s">
+        <v>2438</v>
+      </c>
+      <c r="O764" s="3" t="s">
         <v>2439</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>2440</v>
-      </c>
-      <c r="M764" t="s">
-        <v>2441</v>
-      </c>
-      <c r="O764" s="3" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="765" spans="1:15">
       <c r="A765" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="M765" t="s">
+        <v>2442</v>
+      </c>
+      <c r="O765" s="3" t="s">
         <v>2443</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>2444</v>
-      </c>
-      <c r="M765" t="s">
-        <v>2445</v>
-      </c>
-      <c r="O765" s="3" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="766" spans="1:15">
       <c r="A766" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="M766" t="s">
+        <v>2446</v>
+      </c>
+      <c r="O766" s="3" t="s">
         <v>2447</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>2448</v>
-      </c>
-      <c r="M766" t="s">
-        <v>2449</v>
-      </c>
-      <c r="O766" s="3" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="767" spans="1:15">
       <c r="A767" s="1" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="B767" s="13" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
       <c r="C767" s="13"/>
       <c r="D767" s="13"/>
@@ -43644,18 +43721,18 @@
       <c r="K767" s="13"/>
       <c r="L767" s="13"/>
       <c r="M767" s="14" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="O767" s="3" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="768" spans="1:15">
       <c r="A768" s="1" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="B768" s="13" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
       <c r="C768" s="14"/>
       <c r="D768" s="14"/>
@@ -43668,18 +43745,18 @@
       <c r="K768" s="14"/>
       <c r="L768" s="14"/>
       <c r="M768" s="14" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="O768" s="3" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="769" spans="1:15">
       <c r="A769" s="1" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="B769" s="13" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="C769" s="14"/>
       <c r="D769" s="14"/>
@@ -43692,10 +43769,10 @@
       <c r="K769" s="14"/>
       <c r="L769" s="14"/>
       <c r="M769" s="14" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="O769" s="3" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="770" spans="1:15">
@@ -43715,10 +43792,10 @@
     </row>
     <row r="771" spans="1:15">
       <c r="A771" s="1" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="B771" s="13" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="C771" s="14"/>
       <c r="D771" s="14"/>
@@ -43731,18 +43808,18 @@
       <c r="K771" s="14"/>
       <c r="L771" s="14"/>
       <c r="M771" s="13" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="O771" s="3" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="772" spans="1:15">
       <c r="A772" s="1" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="B772" s="13" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="C772" s="14"/>
       <c r="D772" s="14"/>
@@ -43755,494 +43832,494 @@
       <c r="K772" s="14"/>
       <c r="L772" s="14"/>
       <c r="M772" s="13" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="O772" s="3" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="774" spans="1:15">
       <c r="A774" s="1" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="M774" s="1" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="O774" s="3" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="775" spans="1:15">
       <c r="A775" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="M775" t="s">
+        <v>2472</v>
+      </c>
+      <c r="O775" s="3" t="s">
         <v>2473</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>2474</v>
-      </c>
-      <c r="M775" t="s">
-        <v>2475</v>
-      </c>
-      <c r="O775" s="3" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="776" spans="1:15">
       <c r="A776" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="M776" t="s">
+        <v>2476</v>
+      </c>
+      <c r="O776" s="3" t="s">
         <v>2477</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>2478</v>
-      </c>
-      <c r="M776" t="s">
-        <v>2479</v>
-      </c>
-      <c r="O776" s="3" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="777" spans="1:15">
       <c r="A777" s="1" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="M777" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="O777" s="35" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="778" spans="1:15">
       <c r="A778" s="1" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="M778" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="O778" s="36" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="779" spans="1:15">
       <c r="A779" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="M779" t="s">
+        <v>2486</v>
+      </c>
+      <c r="O779" s="3" t="s">
         <v>2487</v>
-      </c>
-      <c r="B779" s="1" t="s">
-        <v>2488</v>
-      </c>
-      <c r="M779" t="s">
-        <v>2489</v>
-      </c>
-      <c r="O779" s="3" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="780" spans="1:15">
       <c r="A780" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="M780" t="s">
+        <v>2490</v>
+      </c>
+      <c r="O780" s="3" t="s">
         <v>2491</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>2492</v>
-      </c>
-      <c r="M780" t="s">
-        <v>2493</v>
-      </c>
-      <c r="O780" s="3" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="781" spans="1:15">
       <c r="A781" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="M781" t="s">
+        <v>2494</v>
+      </c>
+      <c r="O781" s="3" t="s">
         <v>2495</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>2496</v>
-      </c>
-      <c r="M781" t="s">
-        <v>2497</v>
-      </c>
-      <c r="O781" s="3" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="782" spans="1:15">
       <c r="A782" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="M782" t="s">
+        <v>2498</v>
+      </c>
+      <c r="O782" s="3" t="s">
         <v>2499</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>2500</v>
-      </c>
-      <c r="M782" t="s">
-        <v>2501</v>
-      </c>
-      <c r="O782" s="3" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="783" spans="1:15">
       <c r="A783" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="M783" t="s">
+        <v>2502</v>
+      </c>
+      <c r="O783" s="3" t="s">
         <v>2503</v>
-      </c>
-      <c r="B783" s="1" t="s">
-        <v>2504</v>
-      </c>
-      <c r="M783" t="s">
-        <v>2505</v>
-      </c>
-      <c r="O783" s="3" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="784" spans="1:15">
       <c r="A784" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="M784" t="s">
+        <v>2506</v>
+      </c>
+      <c r="O784" s="3" t="s">
         <v>2507</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>2508</v>
-      </c>
-      <c r="M784" t="s">
-        <v>2509</v>
-      </c>
-      <c r="O784" s="3" t="s">
-        <v>2510</v>
       </c>
     </row>
     <row r="785" spans="1:15">
       <c r="A785" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="M785" t="s">
+        <v>2510</v>
+      </c>
+      <c r="O785" s="7" t="s">
         <v>2511</v>
-      </c>
-      <c r="B785" s="1" t="s">
-        <v>2512</v>
-      </c>
-      <c r="M785" t="s">
-        <v>2513</v>
-      </c>
-      <c r="O785" s="7" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="786" spans="1:15">
       <c r="A786" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="M786" t="s">
+        <v>2514</v>
+      </c>
+      <c r="O786" s="3" t="s">
         <v>2515</v>
-      </c>
-      <c r="B786" s="1" t="s">
-        <v>2516</v>
-      </c>
-      <c r="M786" t="s">
-        <v>2517</v>
-      </c>
-      <c r="O786" s="3" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="788" spans="1:15">
       <c r="A788" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="M788" t="s">
+        <v>2518</v>
+      </c>
+      <c r="O788" s="3" t="s">
         <v>2519</v>
-      </c>
-      <c r="B788" s="1" t="s">
-        <v>2520</v>
-      </c>
-      <c r="M788" t="s">
-        <v>2521</v>
-      </c>
-      <c r="O788" s="3" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="789" spans="1:15">
       <c r="A789" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="M789" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O789" s="3" t="s">
         <v>2523</v>
-      </c>
-      <c r="B789" s="1" t="s">
-        <v>2524</v>
-      </c>
-      <c r="M789" t="s">
-        <v>2525</v>
-      </c>
-      <c r="O789" s="3" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="790" spans="1:15">
       <c r="A790" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="M790" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O790" s="3" t="s">
         <v>2527</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>2528</v>
-      </c>
-      <c r="M790" t="s">
-        <v>2529</v>
-      </c>
-      <c r="O790" s="3" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="791" spans="1:15">
       <c r="A791" s="1" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="M791" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="O791" s="3" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="792" spans="1:15">
       <c r="A792" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="M792" t="s">
+        <v>2533</v>
+      </c>
+      <c r="O792" s="3" t="s">
         <v>2534</v>
-      </c>
-      <c r="B792" s="1" t="s">
-        <v>2535</v>
-      </c>
-      <c r="M792" t="s">
-        <v>2536</v>
-      </c>
-      <c r="O792" s="3" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="793" spans="1:15">
       <c r="A793" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="M793" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O793" s="3" t="s">
         <v>2538</v>
-      </c>
-      <c r="B793" s="1" t="s">
-        <v>2539</v>
-      </c>
-      <c r="M793" t="s">
-        <v>2540</v>
-      </c>
-      <c r="O793" s="3" t="s">
-        <v>2541</v>
       </c>
     </row>
     <row r="794" spans="1:15">
       <c r="A794" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="M794" t="s">
+        <v>2541</v>
+      </c>
+      <c r="O794" s="3" t="s">
         <v>2542</v>
-      </c>
-      <c r="B794" s="1" t="s">
-        <v>2543</v>
-      </c>
-      <c r="M794" t="s">
-        <v>2544</v>
-      </c>
-      <c r="O794" s="3" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="795" spans="1:15">
       <c r="A795" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="M795" t="s">
+        <v>2545</v>
+      </c>
+      <c r="O795" s="3" t="s">
         <v>2546</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="M795" t="s">
-        <v>2548</v>
-      </c>
-      <c r="O795" s="3" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="796" spans="1:15">
       <c r="A796" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="M796" t="s">
+        <v>2549</v>
+      </c>
+      <c r="O796" s="3" t="s">
         <v>2550</v>
-      </c>
-      <c r="B796" s="1" t="s">
-        <v>2551</v>
-      </c>
-      <c r="M796" t="s">
-        <v>2552</v>
-      </c>
-      <c r="O796" s="3" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="797" spans="1:15">
       <c r="A797" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="M797" t="s">
+        <v>2553</v>
+      </c>
+      <c r="O797" s="3" t="s">
         <v>2554</v>
-      </c>
-      <c r="B797" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="M797" t="s">
-        <v>2556</v>
-      </c>
-      <c r="O797" s="3" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="798" spans="1:15">
       <c r="A798" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="M798" t="s">
+        <v>2557</v>
+      </c>
+      <c r="O798" s="7" t="s">
         <v>2558</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>2559</v>
-      </c>
-      <c r="M798" t="s">
-        <v>2560</v>
-      </c>
-      <c r="O798" s="7" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="800" spans="1:15">
       <c r="A800" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="M800" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O800" s="2" t="s">
         <v>2562</v>
-      </c>
-      <c r="B800" s="1" t="s">
-        <v>2563</v>
-      </c>
-      <c r="M800" t="s">
-        <v>2564</v>
-      </c>
-      <c r="O800" s="2" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="801" spans="1:15">
       <c r="A801" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="M801" t="s">
+        <v>2565</v>
+      </c>
+      <c r="O801" s="2" t="s">
         <v>2566</v>
-      </c>
-      <c r="B801" s="1" t="s">
-        <v>2567</v>
-      </c>
-      <c r="M801" t="s">
-        <v>2568</v>
-      </c>
-      <c r="O801" s="2" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="802" spans="1:15">
       <c r="A802" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="M802" t="s">
+        <v>2569</v>
+      </c>
+      <c r="O802" s="2" t="s">
         <v>2570</v>
-      </c>
-      <c r="B802" s="1" t="s">
-        <v>2571</v>
-      </c>
-      <c r="M802" t="s">
-        <v>2572</v>
-      </c>
-      <c r="O802" s="2" t="s">
-        <v>2573</v>
       </c>
     </row>
     <row r="803" spans="1:15">
       <c r="A803" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="M803" t="s">
+        <v>2573</v>
+      </c>
+      <c r="O803" s="3" t="s">
         <v>2574</v>
-      </c>
-      <c r="B803" s="1" t="s">
-        <v>2575</v>
-      </c>
-      <c r="M803" t="s">
-        <v>2576</v>
-      </c>
-      <c r="O803" s="3" t="s">
-        <v>2577</v>
       </c>
     </row>
     <row r="804" spans="1:15">
       <c r="A804" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M804" t="s">
+        <v>2577</v>
+      </c>
+      <c r="O804" s="3" t="s">
         <v>2578</v>
-      </c>
-      <c r="B804" s="1" t="s">
-        <v>2579</v>
-      </c>
-      <c r="M804" t="s">
-        <v>2580</v>
-      </c>
-      <c r="O804" s="3" t="s">
-        <v>2581</v>
       </c>
     </row>
     <row r="808" spans="1:15">
       <c r="A808" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="M808" t="s">
+        <v>2581</v>
+      </c>
+      <c r="O808" s="3" t="s">
         <v>2582</v>
-      </c>
-      <c r="B808" s="1" t="s">
-        <v>2583</v>
-      </c>
-      <c r="M808" t="s">
-        <v>2584</v>
-      </c>
-      <c r="O808" s="3" t="s">
-        <v>2585</v>
       </c>
     </row>
     <row r="809" spans="1:15">
       <c r="A809" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="M809" t="s">
+        <v>2585</v>
+      </c>
+      <c r="O809" s="3" t="s">
         <v>2586</v>
-      </c>
-      <c r="B809" s="1" t="s">
-        <v>2587</v>
-      </c>
-      <c r="M809" t="s">
-        <v>2588</v>
-      </c>
-      <c r="O809" s="3" t="s">
-        <v>2589</v>
       </c>
     </row>
     <row r="810" spans="1:15">
       <c r="A810" s="1" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="M810" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="O810" s="3" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="811" spans="1:15">
       <c r="A811" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M811" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O811" s="3" t="s">
         <v>2592</v>
-      </c>
-      <c r="B811" s="1" t="s">
-        <v>2593</v>
-      </c>
-      <c r="M811" t="s">
-        <v>2594</v>
-      </c>
-      <c r="O811" s="3" t="s">
-        <v>2595</v>
       </c>
     </row>
     <row r="812" spans="1:15">
       <c r="A812" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="M812" t="s">
+        <v>2595</v>
+      </c>
+      <c r="O812" s="3" t="s">
         <v>2596</v>
-      </c>
-      <c r="B812" s="1" t="s">
-        <v>2597</v>
-      </c>
-      <c r="M812" t="s">
-        <v>2598</v>
-      </c>
-      <c r="O812" s="3" t="s">
-        <v>2599</v>
       </c>
     </row>
     <row r="813" spans="1:15">
       <c r="A813" s="1" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="B813" s="15" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="C813" s="16"/>
       <c r="D813" s="16"/>
@@ -44255,18 +44332,18 @@
       <c r="K813" s="16"/>
       <c r="L813" s="16"/>
       <c r="M813" s="17" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="O813" s="3" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="814" spans="1:15">
       <c r="A814" s="1" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="B814" s="15" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="C814" s="16"/>
       <c r="D814" s="16"/>
@@ -44279,18 +44356,18 @@
       <c r="K814" s="16"/>
       <c r="L814" s="16"/>
       <c r="M814" s="17" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="O814" s="3" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="815" spans="1:15">
       <c r="A815" s="1" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="B815" s="15" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="C815" s="16"/>
       <c r="D815" s="16"/>
@@ -44303,18 +44380,18 @@
       <c r="K815" s="16"/>
       <c r="L815" s="16"/>
       <c r="M815" s="17" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="O815" s="3" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="816" spans="1:15">
       <c r="A816" s="1" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="B816" s="15" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="C816" s="16"/>
       <c r="D816" s="16"/>
@@ -44327,18 +44404,18 @@
       <c r="K816" s="16"/>
       <c r="L816" s="16"/>
       <c r="M816" s="17" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="O816" s="3" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="817" spans="1:15">
       <c r="A817" s="1" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="B817" s="15" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="C817" s="16"/>
       <c r="D817" s="16"/>
@@ -44351,35 +44428,35 @@
       <c r="K817" s="16"/>
       <c r="L817" s="16"/>
       <c r="M817" s="17" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="O817" s="3" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="818" spans="1:15">
       <c r="A818" s="1" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="B818" s="15" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="M818" s="17" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="O818" s="3" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="819" spans="1:15">
       <c r="A819" s="1" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="M819" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="O819" s="7" t="s">
         <v>302</v>
@@ -44387,646 +44464,646 @@
     </row>
     <row r="820" spans="1:15">
       <c r="A820" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M820" t="s">
+        <v>2622</v>
+      </c>
+      <c r="O820" s="3" t="s">
         <v>2623</v>
-      </c>
-      <c r="B820" s="1" t="s">
-        <v>2624</v>
-      </c>
-      <c r="M820" t="s">
-        <v>2625</v>
-      </c>
-      <c r="O820" s="3" t="s">
-        <v>2626</v>
       </c>
     </row>
     <row r="822" spans="1:15">
       <c r="A822" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B822" s="15" t="s">
+        <v>2625</v>
+      </c>
+      <c r="M822" s="17" t="s">
+        <v>2626</v>
+      </c>
+      <c r="O822" s="3" t="s">
         <v>2627</v>
-      </c>
-      <c r="B822" s="15" t="s">
-        <v>2628</v>
-      </c>
-      <c r="M822" s="17" t="s">
-        <v>2629</v>
-      </c>
-      <c r="O822" s="3" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="824" spans="1:15">
       <c r="A824" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B824" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="M824" s="5" t="s">
+        <v>2630</v>
+      </c>
+      <c r="O824" s="3" t="s">
         <v>2631</v>
-      </c>
-      <c r="B824" s="5" t="s">
-        <v>2632</v>
-      </c>
-      <c r="M824" s="5" t="s">
-        <v>2633</v>
-      </c>
-      <c r="O824" s="3" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="825" spans="1:15">
       <c r="A825" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B825" s="5" t="s">
+        <v>2633</v>
+      </c>
+      <c r="M825" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="O825" s="3" t="s">
         <v>2635</v>
-      </c>
-      <c r="B825" s="5" t="s">
-        <v>2636</v>
-      </c>
-      <c r="M825" s="5" t="s">
-        <v>2637</v>
-      </c>
-      <c r="O825" s="3" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="826" spans="1:15">
       <c r="A826" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B826" s="5" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M826" s="5" t="s">
+        <v>2638</v>
+      </c>
+      <c r="O826" s="3" t="s">
         <v>2639</v>
-      </c>
-      <c r="B826" s="5" t="s">
-        <v>2640</v>
-      </c>
-      <c r="M826" s="5" t="s">
-        <v>2641</v>
-      </c>
-      <c r="O826" s="3" t="s">
-        <v>2642</v>
       </c>
     </row>
     <row r="827" spans="1:15">
       <c r="A827" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B827" s="5" t="s">
+        <v>2641</v>
+      </c>
+      <c r="M827" s="5" t="s">
+        <v>2642</v>
+      </c>
+      <c r="O827" s="3" t="s">
         <v>2643</v>
-      </c>
-      <c r="B827" s="5" t="s">
-        <v>2644</v>
-      </c>
-      <c r="M827" s="5" t="s">
-        <v>2645</v>
-      </c>
-      <c r="O827" s="3" t="s">
-        <v>2646</v>
       </c>
     </row>
     <row r="828" spans="1:15" ht="37.5">
       <c r="A828" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B828" s="5" t="s">
+        <v>2645</v>
+      </c>
+      <c r="M828" s="4" t="s">
+        <v>2646</v>
+      </c>
+      <c r="O828" s="3" t="s">
         <v>2647</v>
-      </c>
-      <c r="B828" s="5" t="s">
-        <v>2648</v>
-      </c>
-      <c r="M828" s="4" t="s">
-        <v>2649</v>
-      </c>
-      <c r="O828" s="3" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="831" spans="1:15">
       <c r="A831" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="M831" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="O831" s="3" t="s">
         <v>2651</v>
-      </c>
-      <c r="B831" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="M831" s="1" t="s">
-        <v>2653</v>
-      </c>
-      <c r="O831" s="3" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="832" spans="1:15">
       <c r="A832" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="M832" t="s">
+        <v>2654</v>
+      </c>
+      <c r="O832" s="3" t="s">
         <v>2655</v>
-      </c>
-      <c r="B832" s="1" t="s">
-        <v>2656</v>
-      </c>
-      <c r="M832" t="s">
-        <v>2657</v>
-      </c>
-      <c r="O832" s="3" t="s">
-        <v>2658</v>
       </c>
     </row>
     <row r="833" spans="1:15">
       <c r="A833" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="M833" t="s">
+        <v>2658</v>
+      </c>
+      <c r="O833" s="3" t="s">
         <v>2659</v>
-      </c>
-      <c r="B833" s="1" t="s">
-        <v>2660</v>
-      </c>
-      <c r="M833" t="s">
-        <v>2661</v>
-      </c>
-      <c r="O833" s="3" t="s">
-        <v>2662</v>
       </c>
     </row>
     <row r="834" spans="1:15">
       <c r="A834" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="M834" t="s">
+        <v>2662</v>
+      </c>
+      <c r="O834" s="3" t="s">
         <v>2663</v>
-      </c>
-      <c r="B834" s="1" t="s">
-        <v>2664</v>
-      </c>
-      <c r="M834" t="s">
-        <v>2665</v>
-      </c>
-      <c r="O834" s="3" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="836" spans="1:15">
       <c r="A836" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="M836" t="s">
+        <v>2666</v>
+      </c>
+      <c r="O836" s="3" t="s">
         <v>2667</v>
-      </c>
-      <c r="B836" s="1" t="s">
-        <v>2668</v>
-      </c>
-      <c r="M836" t="s">
-        <v>2669</v>
-      </c>
-      <c r="O836" s="3" t="s">
-        <v>2670</v>
       </c>
     </row>
     <row r="837" spans="1:15">
       <c r="A837" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="M837" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="O837" s="2" t="s">
         <v>2671</v>
-      </c>
-      <c r="B837" s="1" t="s">
-        <v>2672</v>
-      </c>
-      <c r="M837" s="1" t="s">
-        <v>2673</v>
-      </c>
-      <c r="O837" s="2" t="s">
-        <v>2674</v>
       </c>
     </row>
     <row r="839" spans="1:15">
       <c r="A839" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="M839" t="s">
+        <v>2674</v>
+      </c>
+      <c r="O839" s="3" t="s">
         <v>2675</v>
-      </c>
-      <c r="B839" s="1" t="s">
-        <v>2676</v>
-      </c>
-      <c r="M839" t="s">
-        <v>2677</v>
-      </c>
-      <c r="O839" s="3" t="s">
-        <v>2678</v>
       </c>
     </row>
     <row r="841" spans="1:15">
       <c r="A841" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="M841" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="O841" s="2" t="s">
         <v>2679</v>
-      </c>
-      <c r="B841" s="1" t="s">
-        <v>2680</v>
-      </c>
-      <c r="M841" s="1" t="s">
-        <v>2681</v>
-      </c>
-      <c r="O841" s="2" t="s">
-        <v>2682</v>
       </c>
     </row>
     <row r="842" spans="1:15">
       <c r="A842" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="M842" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O842" s="2" t="s">
         <v>2683</v>
-      </c>
-      <c r="B842" s="1" t="s">
-        <v>2684</v>
-      </c>
-      <c r="M842" s="1" t="s">
-        <v>2685</v>
-      </c>
-      <c r="O842" s="2" t="s">
-        <v>2686</v>
       </c>
     </row>
     <row r="843" spans="1:15">
       <c r="A843" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="M843" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="O843" s="2" t="s">
         <v>2687</v>
-      </c>
-      <c r="B843" s="1" t="s">
-        <v>2688</v>
-      </c>
-      <c r="M843" s="1" t="s">
-        <v>2689</v>
-      </c>
-      <c r="O843" s="2" t="s">
-        <v>2690</v>
       </c>
     </row>
     <row r="844" spans="1:15">
       <c r="A844" s="1" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="M844" s="1" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="O844" s="2" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="845" spans="1:15">
       <c r="A845" s="1" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="M845" s="1" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="O845" s="2" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="846" spans="1:15">
       <c r="A846" s="1" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="M846" s="1" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="O846" s="2" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="847" spans="1:15">
       <c r="A847" s="1" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="M847" s="1" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="O847" s="2" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="848" spans="1:15">
       <c r="A848" s="1" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="M848" s="1" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="O848" s="2" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="849" spans="1:15">
       <c r="A849" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="M849" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="O849" s="2" t="s">
         <v>2702</v>
-      </c>
-      <c r="B849" s="1" t="s">
-        <v>2703</v>
-      </c>
-      <c r="M849" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="O849" s="2" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="850" spans="1:15">
       <c r="A850" s="1" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="M850" s="1" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="O850" s="2" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="851" spans="1:15">
       <c r="A851" s="1" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="B851" s="18" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="M851" s="1" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="O851" s="2" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="853" spans="1:15" ht="108.75">
       <c r="A853" s="41" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="B853" s="20" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="M853" s="20" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="O853" s="42" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="854" spans="1:15" ht="123.75">
       <c r="A854" s="19" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="B854" s="20" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="M854" s="20" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="O854" s="37" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="855" spans="1:15">
       <c r="A855" s="1" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="M855" s="1" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="O855" s="41" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="857" spans="1:15" ht="37.5">
       <c r="A857" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B857" s="5" t="s">
+        <v>2717</v>
+      </c>
+      <c r="M857" s="5" t="s">
+        <v>2718</v>
+      </c>
+      <c r="O857" s="21" t="s">
         <v>2719</v>
-      </c>
-      <c r="B857" s="5" t="s">
-        <v>2720</v>
-      </c>
-      <c r="M857" s="5" t="s">
-        <v>2721</v>
-      </c>
-      <c r="O857" s="21" t="s">
-        <v>2722</v>
       </c>
     </row>
     <row r="858" spans="1:15" ht="37.5">
       <c r="A858" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B858" s="20" t="s">
+        <v>2721</v>
+      </c>
+      <c r="M858" s="21" t="s">
+        <v>2722</v>
+      </c>
+      <c r="O858" s="21" t="s">
         <v>2723</v>
-      </c>
-      <c r="B858" s="20" t="s">
-        <v>2724</v>
-      </c>
-      <c r="M858" s="21" t="s">
-        <v>2725</v>
-      </c>
-      <c r="O858" s="21" t="s">
-        <v>2726</v>
       </c>
     </row>
     <row r="859" spans="1:15" ht="56.25">
       <c r="A859" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B859" s="5" t="s">
+        <v>2725</v>
+      </c>
+      <c r="M859" s="21" t="s">
+        <v>2726</v>
+      </c>
+      <c r="O859" s="21" t="s">
         <v>2727</v>
-      </c>
-      <c r="B859" s="5" t="s">
-        <v>2728</v>
-      </c>
-      <c r="M859" s="21" t="s">
-        <v>2729</v>
-      </c>
-      <c r="O859" s="21" t="s">
-        <v>2730</v>
       </c>
     </row>
     <row r="860" spans="1:15" ht="32.25">
       <c r="A860" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B860" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="M860" t="s">
+        <v>2730</v>
+      </c>
+      <c r="O860" s="4" t="s">
         <v>2731</v>
-      </c>
-      <c r="B860" s="5" t="s">
-        <v>2732</v>
-      </c>
-      <c r="M860" t="s">
-        <v>2733</v>
-      </c>
-      <c r="O860" s="4" t="s">
-        <v>2734</v>
       </c>
     </row>
     <row r="861" spans="1:15" ht="56.25">
       <c r="A861" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B861" s="5" t="s">
+        <v>2733</v>
+      </c>
+      <c r="M861" s="5" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O861" s="21" t="s">
         <v>2735</v>
-      </c>
-      <c r="B861" s="5" t="s">
-        <v>2736</v>
-      </c>
-      <c r="M861" s="5" t="s">
-        <v>2737</v>
-      </c>
-      <c r="O861" s="21" t="s">
-        <v>2738</v>
       </c>
     </row>
     <row r="862" spans="1:15" ht="56.25">
       <c r="A862" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="B862" s="5" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="M862" s="22" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="O862" s="21" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="863" spans="1:15" ht="44.25" customHeight="1">
       <c r="A863" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B863" s="5" t="s">
+        <v>2740</v>
+      </c>
+      <c r="M863" s="5" t="s">
+        <v>2741</v>
+      </c>
+      <c r="O863" s="23" t="s">
         <v>2742</v>
-      </c>
-      <c r="B863" s="5" t="s">
-        <v>2743</v>
-      </c>
-      <c r="M863" s="5" t="s">
-        <v>2744</v>
-      </c>
-      <c r="O863" s="23" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="864" spans="1:15" ht="37.5">
       <c r="A864" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B864" s="5" t="s">
+        <v>2744</v>
+      </c>
+      <c r="M864" s="5" t="s">
+        <v>2745</v>
+      </c>
+      <c r="O864" s="23" t="s">
         <v>2746</v>
-      </c>
-      <c r="B864" s="5" t="s">
-        <v>2747</v>
-      </c>
-      <c r="M864" s="5" t="s">
-        <v>2748</v>
-      </c>
-      <c r="O864" s="23" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="866" spans="1:15">
       <c r="A866" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2748</v>
+      </c>
+      <c r="M866" t="s">
+        <v>2749</v>
+      </c>
+      <c r="O866" s="21" t="s">
         <v>2750</v>
-      </c>
-      <c r="B866" t="s">
-        <v>2751</v>
-      </c>
-      <c r="M866" t="s">
-        <v>2752</v>
-      </c>
-      <c r="O866" s="21" t="s">
-        <v>2753</v>
       </c>
     </row>
     <row r="867" spans="1:15">
       <c r="A867" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="B867" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="M867" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="O867" s="21" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="869" spans="1:15">
       <c r="A869" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2754</v>
+      </c>
+      <c r="M869" t="s">
+        <v>2755</v>
+      </c>
+      <c r="O869" s="4" t="s">
         <v>2756</v>
-      </c>
-      <c r="B869" t="s">
-        <v>2757</v>
-      </c>
-      <c r="M869" t="s">
-        <v>2758</v>
-      </c>
-      <c r="O869" s="4" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="870" spans="1:15">
       <c r="A870" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B870" t="s">
+        <v>2758</v>
+      </c>
+      <c r="M870" t="s">
+        <v>2759</v>
+      </c>
+      <c r="O870" s="24" t="s">
         <v>2760</v>
-      </c>
-      <c r="B870" t="s">
-        <v>2761</v>
-      </c>
-      <c r="M870" t="s">
-        <v>2762</v>
-      </c>
-      <c r="O870" s="24" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="871" spans="1:15">
       <c r="A871" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="B871" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="M871" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="O871" s="24" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="872" spans="1:15" ht="168.75">
       <c r="A872" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B872" s="21" t="s">
+        <v>2763</v>
+      </c>
+      <c r="M872" s="21" t="s">
+        <v>2764</v>
+      </c>
+      <c r="O872" s="21" t="s">
         <v>2765</v>
-      </c>
-      <c r="B872" s="21" t="s">
-        <v>2766</v>
-      </c>
-      <c r="M872" s="21" t="s">
-        <v>2767</v>
-      </c>
-      <c r="O872" s="21" t="s">
-        <v>2768</v>
       </c>
     </row>
     <row r="873" spans="1:15">
       <c r="A873" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2767</v>
+      </c>
+      <c r="M873" t="s">
+        <v>2768</v>
+      </c>
+      <c r="O873" s="21" t="s">
         <v>2769</v>
-      </c>
-      <c r="B873" t="s">
-        <v>2770</v>
-      </c>
-      <c r="M873" t="s">
-        <v>2771</v>
-      </c>
-      <c r="O873" s="21" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="874" spans="1:15">
       <c r="A874" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2771</v>
+      </c>
+      <c r="M874" t="s">
+        <v>2772</v>
+      </c>
+      <c r="O874" s="21" t="s">
         <v>2773</v>
-      </c>
-      <c r="B874" t="s">
-        <v>2774</v>
-      </c>
-      <c r="M874" t="s">
-        <v>2775</v>
-      </c>
-      <c r="O874" s="21" t="s">
-        <v>2776</v>
       </c>
     </row>
     <row r="875" spans="1:15">
       <c r="A875" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B875" t="s">
+        <v>2775</v>
+      </c>
+      <c r="M875" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O875" s="24" t="s">
         <v>2777</v>
-      </c>
-      <c r="B875" t="s">
-        <v>2778</v>
-      </c>
-      <c r="M875" t="s">
-        <v>2779</v>
-      </c>
-      <c r="O875" s="24" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="876" spans="1:15">
       <c r="A876" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B876" t="s">
+        <v>2779</v>
+      </c>
+      <c r="M876" t="s">
+        <v>2780</v>
+      </c>
+      <c r="O876" s="24" t="s">
         <v>2781</v>
-      </c>
-      <c r="B876" t="s">
-        <v>2782</v>
-      </c>
-      <c r="M876" t="s">
-        <v>2783</v>
-      </c>
-      <c r="O876" s="24" t="s">
-        <v>2784</v>
       </c>
     </row>
   </sheetData>
@@ -45105,618 +45182,618 @@
     </row>
     <row r="2" spans="1:17" ht="56.25">
       <c r="A2" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2783</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>2785</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2786</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2787</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>2788</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="56.25">
       <c r="A3" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2787</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>2789</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2790</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>2791</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>2792</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="112.5">
       <c r="A4" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2791</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>2793</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2794</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>2795</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>2796</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="75">
       <c r="A5" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2795</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2796</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>2797</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2798</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>2799</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>2800</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="56.25">
       <c r="A6" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2799</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2800</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>2801</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2802</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>2803</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>2804</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="112.5">
       <c r="A7" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2803</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2804</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>2805</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>2806</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>2807</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>2808</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="187.5">
       <c r="A8" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2807</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2808</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>2809</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>2810</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>2811</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>2812</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="168.75">
       <c r="A9" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2811</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>2813</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2814</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>2815</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>2816</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="37.5">
       <c r="A10" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2815</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>2817</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>2818</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>2819</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>2820</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25">
       <c r="A11" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2819</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>2820</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>2821</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2822</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>2823</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="131.25">
       <c r="A12" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2823</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>2824</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>2825</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2826</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>2827</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>2828</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="409.5">
       <c r="A13" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2827</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>2829</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2830</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>2831</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>2832</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="187.5">
       <c r="A14" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2831</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>2832</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>2833</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>2834</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>2835</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="56.25">
       <c r="A15" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2836</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>2837</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>2838</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>2839</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="131.25">
       <c r="A16" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2839</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>2840</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>2841</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2842</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>2843</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>2844</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="131.25">
       <c r="A17" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>2843</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>2844</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>2845</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>2846</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>2847</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>2848</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="225">
       <c r="A18" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>2847</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>2848</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>2849</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>2850</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>2851</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>2852</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="131.25">
       <c r="A19" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="206.25">
       <c r="A20" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>2854</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>2855</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>2856</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>2857</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>2858</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>2859</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="243.75">
       <c r="A21" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="O21" s="9" t="s">
         <v>2860</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>2861</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>2862</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>2863</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="75">
       <c r="A22" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>2862</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="O22" s="9" t="s">
         <v>2864</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>2865</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>2866</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>2867</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="112.5">
       <c r="A23" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>2866</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>2868</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>2869</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>2870</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>2871</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="93.75">
       <c r="A24" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="O24" s="9" t="s">
         <v>2872</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>2873</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>2874</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="168.75">
       <c r="A25" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2874</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="O25" s="9" t="s">
         <v>2876</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>2877</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>2878</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>2879</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="206.25">
       <c r="A26" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>2880</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2881</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>2882</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>2883</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="93.75">
       <c r="A27" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>2882</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>2884</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2885</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>2886</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="112.5">
       <c r="A28" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="262.5">
       <c r="A29" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>2889</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>2890</v>
+      </c>
+      <c r="O29" s="9" t="s">
         <v>2891</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2892</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>2893</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>2894</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="93.75">
       <c r="A30" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>2893</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>2895</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2896</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>2897</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>2898</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="187.5">
       <c r="A31" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>2898</v>
+      </c>
+      <c r="O31" s="9" t="s">
         <v>2899</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>2900</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>2901</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>2902</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="300">
       <c r="A32" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="92.25">
       <c r="A33" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="168.75">
       <c r="A34" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>2907</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>2908</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>2909</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2910</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>2911</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>2912</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="168.75">
       <c r="A35" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="93.75">
       <c r="A36" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>2913</v>
+      </c>
+      <c r="O36" s="9" t="s">
         <v>2914</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>2915</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>2916</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>2917</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="56.25">
       <c r="A37" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>2916</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O37" s="9" t="s">
         <v>2918</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>2919</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>2920</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>2921</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>2920</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>2921</v>
+      </c>
+      <c r="O38" s="9" t="s">
         <v>2922</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>2923</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>2924</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>2925</v>
+      </c>
+      <c r="O39" s="9" t="s">
         <v>2926</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>2927</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>2928</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>2929</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="262.5">
       <c r="A40" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>2928</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>2929</v>
+      </c>
+      <c r="O40" s="9" t="s">
         <v>2930</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>2931</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>2932</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>2933</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="112.5">
       <c r="A41" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>2932</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>2933</v>
+      </c>
+      <c r="O41" s="9" t="s">
         <v>2934</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>2935</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>2936</v>
-      </c>
-      <c r="O41" s="9" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="93.75">
       <c r="A42" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>2936</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>2937</v>
+      </c>
+      <c r="O42" s="9" t="s">
         <v>2938</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>2939</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>2940</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>2941</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="92.25">
       <c r="A43" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>2941</v>
+      </c>
+      <c r="O43" s="10" t="s">
         <v>2942</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>2943</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>2944</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>2945</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="187.5">
       <c r="A44" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>2944</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>2945</v>
+      </c>
+      <c r="O44" s="9" t="s">
         <v>2946</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>2947</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>2948</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>2949</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="56.25">
       <c r="A45" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="O45" s="9" t="s">
         <v>2950</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>2951</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>2952</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>2953</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -45724,30 +45801,30 @@
     </row>
     <row r="47" spans="1:15" ht="75">
       <c r="A47" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="112.5">
       <c r="A48" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>2954</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="O48" s="9" t="s">
         <v>2956</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>2957</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>2958</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>2959</v>
       </c>
     </row>
   </sheetData>
@@ -45825,478 +45902,478 @@
     </row>
     <row r="2" spans="1:17" ht="56.25">
       <c r="A2" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2959</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>2960</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2962</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>2963</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="62.25">
       <c r="A3" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="75">
       <c r="A4" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>2966</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>2967</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2968</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>2969</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>2970</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="37.5">
       <c r="A5" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>2971</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>2973</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="56.25">
       <c r="A6" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>2975</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2976</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>2977</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>2978</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="77.25">
       <c r="A7" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="56.25">
       <c r="A8" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2981</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>2982</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>2984</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>2985</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="37.5">
       <c r="A9" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>2985</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>2986</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2987</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>2988</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>2989</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="56.25">
       <c r="A10" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>2990</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>2992</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>2993</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25">
       <c r="A11" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>2994</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>2996</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>2997</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="37.5">
       <c r="A12" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>2998</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2999</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>3000</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>3001</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="56.25">
       <c r="A13" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="47.25">
       <c r="A14" s="1" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>3005</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3006</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>3007</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>3008</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="56.25">
       <c r="A15" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="56.25">
       <c r="A16" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3010</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>3012</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>3014</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>3015</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="56.25">
       <c r="A17" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>3016</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3017</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>3018</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="37.5">
       <c r="A18" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>3020</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3021</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>3022</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>3023</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="37.5">
       <c r="A19" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>3024</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>3026</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>3027</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="56.25">
       <c r="A20" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>3028</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3029</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>3030</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>3031</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="56.25">
       <c r="A21" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>3032</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3033</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>3034</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>3035</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="56.25">
       <c r="A22" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>3036</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3037</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>3038</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>3039</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="37.5">
       <c r="A23" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="56.25">
       <c r="A24" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>3043</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>3045</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>3046</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="37.5">
       <c r="A25" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>3047</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>3049</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>3050</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="37.5">
       <c r="A26" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="62.25">
       <c r="A27" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3052</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>3054</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>3055</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>3056</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>3057</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="62.25">
       <c r="A28" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3056</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>3058</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>3059</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>3060</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>3061</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="56.25">
       <c r="A29" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>3062</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3063</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>3064</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>3065</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="37.5">
       <c r="A30" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>3066</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>3068</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>3069</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="62.25">
       <c r="A31" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="56.25">
       <c r="A32" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3071</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>3073</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>3074</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>3075</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>3076</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="37.5">
       <c r="A33" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3075</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>3077</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>3078</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>3079</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>3080</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="37.5">
       <c r="A34" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3079</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>3081</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>3082</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>3083</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>3084</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="47.25">
       <c r="A35" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3083</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>3085</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>3086</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>3087</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>3088</v>
       </c>
     </row>
   </sheetData>
@@ -46371,218 +46448,218 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
     </row>
   </sheetData>
@@ -46658,265 +46735,265 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>3143</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3144</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3145</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>3146</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M3" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M4" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M5" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M6" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M7" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M8" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M9" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M10" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M11" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M12" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M13" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M14" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M15" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M16" t="s">
+        <v>3178</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>3181</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>3184</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M17" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M18" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M19" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M20" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>1506</v>
@@ -46924,268 +47001,268 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M21" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M22" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M23" t="s">
         <v>1155</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M24" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M25" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M26" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M27" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M28" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M29" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M30" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M31" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M32" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3229</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>3230</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="M33" t="s">
-        <v>3232</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3233</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="M34" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="M35" t="s">
+        <v>3236</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>3237</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="M35" t="s">
-        <v>3239</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3240</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="M36" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="M37" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="M38" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="M39" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
     </row>
   </sheetData>
@@ -47261,240 +47338,240 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>3250</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3252</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>3253</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>3254</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3255</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3256</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>3257</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>3258</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3259</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3260</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>3261</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3261</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>3262</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3263</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3264</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>3265</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3265</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>3266</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3267</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3268</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>3269</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3269</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>3270</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3272</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>3273</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3273</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>3274</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3276</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3277</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3277</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>3278</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3279</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3280</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3281</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3281</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>3282</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3283</v>
-      </c>
-      <c r="M10" t="s">
-        <v>3284</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3285</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3285</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>3286</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3287</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3288</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>3289</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3289</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>3290</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3291</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3292</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3293</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>3294</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3296</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>3297</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3297</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>3298</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="M14" t="s">
-        <v>3300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3301</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3301</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>3302</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="M15" t="s">
-        <v>3304</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3305</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3305</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>3306</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3307</v>
-      </c>
-      <c r="M16" t="s">
-        <v>3308</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>3309</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3309</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>3310</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3312</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3313</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>3314</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3315</v>
-      </c>
-      <c r="M18" t="s">
-        <v>3316</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3317</v>
       </c>
     </row>
   </sheetData>
@@ -47571,86 +47648,86 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>3318</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>3321</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>3322</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>3324</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>3325</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3325</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>3326</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3327</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3328</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>3329</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>3330</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3331</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3332</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>3333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>3334</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3335</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>3338</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3339</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>3340</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3341</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Translation\TOR-GM-H_RamboPlay_LX-master\TOR-GM-H_RamboPlay_LX-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE299F-8E4B-46BE-8137-E6B1FAD9E517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F662BBB4-EFF1-4CD8-8E35-516779F01320}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32893,308 +32893,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>中文翻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>：&lt;color=#c1a9ff&gt;123，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>氧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t>名&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;color=#1a75ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>博玩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对战</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）&lt;/color&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>定制：&lt;color=#c1a9ff&gt;Haoming&lt;/size&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中文翻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>译</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：123，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>氧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>名&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;color=#1a75ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兰博玩对战（内测）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>02haomingHat</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -33389,13 +33087,334 @@
       <t>具体身份</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汉化：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#FC0303&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四个憨批汉化组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;
+中文翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>：&lt;color=#c1a9ff&gt;123，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢氧则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>名&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#1a75ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>博玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>（内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>）&lt;/color&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;size=70%&gt;模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>定制：&lt;color=#c1a9ff&gt;Haoming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/color&gt;
+汉化：&lt;color=#FC0303&gt;四个憨批汉化组&lt;/color&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>中文翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;color=#c1a9ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>123，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>名，&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#1a75ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰博玩对战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;&lt;/size&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -33495,6 +33514,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -33517,7 +33542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -33587,16 +33612,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -34972,7 +34991,7 @@
       <c r="M82" t="s">
         <v>284</v>
       </c>
-      <c r="O82" s="39" t="s">
+      <c r="O82" s="38" t="s">
         <v>3370</v>
       </c>
     </row>
@@ -34983,7 +35002,7 @@
       <c r="B83" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="O83" s="38" t="s">
+      <c r="O83" s="37" t="s">
         <v>3371</v>
       </c>
     </row>
@@ -35518,7 +35537,7 @@
       <c r="M122" s="28" t="s">
         <v>3374</v>
       </c>
-      <c r="O122" s="38" t="s">
+      <c r="O122" s="37" t="s">
         <v>3373</v>
       </c>
     </row>
@@ -35546,7 +35565,7 @@
       <c r="M124" t="s">
         <v>439</v>
       </c>
-      <c r="O124" s="38" t="s">
+      <c r="O124" s="37" t="s">
         <v>3372</v>
       </c>
     </row>
@@ -35560,22 +35579,22 @@
       <c r="M125" t="s">
         <v>442</v>
       </c>
-      <c r="O125" s="43" t="s">
-        <v>3392</v>
+      <c r="O125" s="41" t="s">
+        <v>3390</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M126" t="s">
         <v>3389</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>3390</v>
-      </c>
-      <c r="M126" t="s">
+      <c r="O126" s="29" t="s">
         <v>3391</v>
-      </c>
-      <c r="O126" s="29" t="s">
-        <v>3393</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -35602,7 +35621,7 @@
       <c r="M128" t="s">
         <v>449</v>
       </c>
-      <c r="O128" s="40" t="s">
+      <c r="O128" s="39" t="s">
         <v>3375</v>
       </c>
     </row>
@@ -36138,41 +36157,41 @@
         <v>577</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
       <c r="M171" t="s">
         <v>578</v>
       </c>
-      <c r="O171" s="39" t="s">
+      <c r="O171" s="38" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="40" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>3381</v>
+      </c>
+      <c r="M172" s="28" t="s">
+        <v>3381</v>
+      </c>
+      <c r="O172" s="28" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="40" t="s">
         <v>3384</v>
       </c>
-    </row>
-    <row r="172" spans="1:15">
-      <c r="A172" s="41" t="s">
-        <v>3381</v>
-      </c>
-      <c r="B172" s="28" t="s">
-        <v>3383</v>
-      </c>
-      <c r="M172" s="28" t="s">
-        <v>3383</v>
-      </c>
-      <c r="O172" s="28" t="s">
+      <c r="B173" s="28" t="s">
         <v>3385</v>
       </c>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="A173" s="41" t="s">
+      <c r="M173" s="28" t="s">
+        <v>3385</v>
+      </c>
+      <c r="O173" s="28" t="s">
         <v>3386</v>
-      </c>
-      <c r="B173" s="28" t="s">
-        <v>3387</v>
-      </c>
-      <c r="M173" s="28" t="s">
-        <v>3387</v>
-      </c>
-      <c r="O173" s="28" t="s">
-        <v>3388</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -36353,7 +36372,7 @@
       <c r="M188" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="O188" s="40" t="s">
+      <c r="O188" s="39" t="s">
         <v>3376</v>
       </c>
     </row>
@@ -36373,8 +36392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q876"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B514" workbookViewId="0">
-      <selection activeCell="O523" sqref="O523"/>
+    <sheetView tabSelected="1" topLeftCell="C847" workbookViewId="0">
+      <selection activeCell="O853" sqref="O853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75"/>
@@ -41319,10 +41338,10 @@
         <v>1857</v>
       </c>
       <c r="M524" s="28" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="O524" s="33" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="525" spans="1:15">
@@ -41378,7 +41397,7 @@
         <v>1872</v>
       </c>
       <c r="O528" s="33" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="532" spans="1:15">
@@ -44813,7 +44832,7 @@
       </c>
     </row>
     <row r="853" spans="1:15" ht="108.75">
-      <c r="A853" s="41" t="s">
+      <c r="A853" s="40" t="s">
         <v>3378</v>
       </c>
       <c r="B853" s="20" t="s">
@@ -44822,8 +44841,8 @@
       <c r="M853" s="20" t="s">
         <v>2709</v>
       </c>
-      <c r="O853" s="42" t="s">
-        <v>3379</v>
+      <c r="O853" s="22" t="s">
+        <v>3395</v>
       </c>
     </row>
     <row r="854" spans="1:15" ht="123.75">
@@ -44836,8 +44855,8 @@
       <c r="M854" s="20" t="s">
         <v>2712</v>
       </c>
-      <c r="O854" s="37" t="s">
-        <v>3380</v>
+      <c r="O854" s="22" t="s">
+        <v>3396</v>
       </c>
     </row>
     <row r="855" spans="1:15">
@@ -44850,7 +44869,7 @@
       <c r="M855" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="O855" s="41" t="s">
+      <c r="O855" s="40" t="s">
         <v>3377</v>
       </c>
     </row>
